--- a/HTML/0 Excel SRC Files/P1 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/P1 Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853CFF4B-CFDE-4FC9-A1F5-81B598B9491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8FC43-AF14-4074-A5EA-2281DFEFB982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="354">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -1086,6 +1086,21 @@
   </si>
   <si>
     <t>https://www.tenable.com/products/nessus</t>
+  </si>
+  <si>
+    <t>CSS Grid Garden</t>
+  </si>
+  <si>
+    <t>Grid Malven</t>
+  </si>
+  <si>
+    <t>complete-guide-grid</t>
+  </si>
+  <si>
+    <t>Web Dev CSS</t>
+  </si>
+  <si>
+    <t>cssgradient</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1948,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3117,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B07CA-D3C7-42D7-902A-9BCAB1F5301C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3602,7 +3617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C88D73-EAF2-466A-B8F2-2CB06EEB36D8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3711,9 +3728,7 @@
       <c r="E5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>209</v>
-      </c>
+      <c r="F5" s="33"/>
       <c r="G5" s="33" t="s">
         <v>210</v>
       </c>
@@ -3725,11 +3740,21 @@
       <c r="A6" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>353</v>
+      </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
     </row>
@@ -3759,7 +3784,9 @@
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
@@ -3821,7 +3848,7 @@
     <hyperlink ref="C5" r:id="rId25" xr:uid="{973FE87C-1687-47C2-BBFE-76106B70CE04}"/>
     <hyperlink ref="D5" r:id="rId26" xr:uid="{5C6F3937-E48C-4A21-85F6-08E8CBC9B580}"/>
     <hyperlink ref="E5" r:id="rId27" xr:uid="{F0C7148A-AA1A-4B8C-8320-1C324F0F8FBA}"/>
-    <hyperlink ref="F5" r:id="rId28" xr:uid="{75AAAD14-2C79-4A37-8452-DB02C8AEED3D}"/>
+    <hyperlink ref="C6" r:id="rId28" xr:uid="{75AAAD14-2C79-4A37-8452-DB02C8AEED3D}"/>
     <hyperlink ref="G5" r:id="rId29" xr:uid="{08560A5A-09EB-4C21-95EC-D034AA0D8994}"/>
     <hyperlink ref="H5" r:id="rId30" xr:uid="{048A5D56-4743-4517-A315-E9347D14BBDC}"/>
     <hyperlink ref="A6" r:id="rId31" xr:uid="{1A36D469-174D-43BD-8BBF-2B910EFF0A5B}"/>
@@ -3831,9 +3858,14 @@
     <hyperlink ref="D8" r:id="rId35" xr:uid="{7E44949E-94C5-4F56-A796-AB39F7CF7742}"/>
     <hyperlink ref="A10:D10" r:id="rId36" display="Does bootstrap have builtin padding and margin classes?" xr:uid="{687F7D5A-5D50-4B59-83EA-D654F9326B93}"/>
     <hyperlink ref="A1" location="'P1'!A1" display="Back" xr:uid="{3DD3BC3D-9236-4BBC-A3F3-010E0E6638AC}"/>
+    <hyperlink ref="B6" r:id="rId37" xr:uid="{48D8D0B5-A460-4992-B1EB-7D4BF959A80B}"/>
+    <hyperlink ref="D6" r:id="rId38" xr:uid="{35735AE5-DD02-468D-8B87-14B7AD7BC0EC}"/>
+    <hyperlink ref="H8" r:id="rId39" xr:uid="{C963CC36-DE09-4AA5-B038-646796906F21}"/>
+    <hyperlink ref="E6" r:id="rId40" xr:uid="{E7842B01-26E8-4DAA-9371-DB04ABBCDBFD}"/>
+    <hyperlink ref="F6" r:id="rId41" xr:uid="{012F31ED-CECB-418B-A0B3-BBC299D62855}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 

--- a/HTML/0 Excel SRC Files/P1 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/P1 Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8FC43-AF14-4074-A5EA-2281DFEFB982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D05B4BF-C2CD-4B9A-8B42-835BF9109C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="More" sheetId="15" r:id="rId3"/>
     <sheet name="OPL" sheetId="14" r:id="rId4"/>
     <sheet name="UI-UX" sheetId="13" r:id="rId5"/>
-    <sheet name="Problem Solving" sheetId="11" r:id="rId6"/>
-    <sheet name="$" sheetId="2" r:id="rId7"/>
-    <sheet name="JS" sheetId="3" r:id="rId8"/>
-    <sheet name="Microsoft" sheetId="4" r:id="rId9"/>
-    <sheet name="3DP" sheetId="5" r:id="rId10"/>
-    <sheet name="Py" sheetId="6" r:id="rId11"/>
-    <sheet name="Tips" sheetId="9" r:id="rId12"/>
-    <sheet name="Software" sheetId="7" r:id="rId13"/>
-    <sheet name="Graphics" sheetId="10" r:id="rId14"/>
+    <sheet name="CSS READY" sheetId="17" r:id="rId6"/>
+    <sheet name="Problem Solving" sheetId="11" r:id="rId7"/>
+    <sheet name="$" sheetId="2" r:id="rId8"/>
+    <sheet name="JS" sheetId="3" r:id="rId9"/>
+    <sheet name="Microsoft" sheetId="4" r:id="rId10"/>
+    <sheet name="3DP" sheetId="5" r:id="rId11"/>
+    <sheet name="Py" sheetId="6" r:id="rId12"/>
+    <sheet name="Tips" sheetId="9" r:id="rId13"/>
+    <sheet name="Software" sheetId="7" r:id="rId14"/>
+    <sheet name="Graphics" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="351">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -518,9 +519,6 @@
   </si>
   <si>
     <t>Animate</t>
-  </si>
-  <si>
-    <t>Uigradients</t>
   </si>
   <si>
     <t>Sketch</t>
@@ -593,24 +591,6 @@
 - تصميم</t>
   </si>
   <si>
-    <t>Dynamics</t>
-  </si>
-  <si>
-    <t>Power Apps</t>
-  </si>
-  <si>
-    <t>Share Point</t>
-  </si>
-  <si>
-    <t>Power Bi</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>Microsoft Learn</t>
-  </si>
-  <si>
     <t>Youtube| Fouad Zawadi</t>
   </si>
   <si>
@@ -629,12 +609,6 @@
     <t>Databases</t>
   </si>
   <si>
-    <t>ASP.NET</t>
-  </si>
-  <si>
-    <t>Power Automate</t>
-  </si>
-  <si>
     <t>Groups</t>
   </si>
   <si>
@@ -1100,7 +1074,25 @@
     <t>Web Dev CSS</t>
   </si>
   <si>
-    <t>cssgradient</t>
+    <t>CSS Ready Tools</t>
+  </si>
+  <si>
+    <t>bac</t>
+  </si>
+  <si>
+    <t>blob maker</t>
+  </si>
+  <si>
+    <t>Ui gradients</t>
+  </si>
+  <si>
+    <t>hype4 academy</t>
+  </si>
+  <si>
+    <t>css gradient</t>
+  </si>
+  <si>
+    <t>get waves</t>
   </si>
 </sst>
 </file>
@@ -1545,12 +1537,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,9 +1565,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1613,15 +1596,9 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,6 +1639,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1947,242 +1937,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="25.140625" style="27"/>
-    <col min="8" max="8" width="23.140625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="25.140625" style="27"/>
+    <col min="1" max="7" width="25.140625" style="25"/>
+    <col min="8" max="8" width="23.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="25.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>259</v>
+      <c r="I1" s="39" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="48" t="s">
+      <c r="D9" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="28"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="28"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="28"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="28"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="28"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="28"/>
+      <c r="J16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2209,17 +2197,17 @@
     <hyperlink ref="F1" r:id="rId14" display="https://hasura.io/" xr:uid="{B8831BE2-9CF1-418D-BF4D-D3A4A8AC7B70}"/>
     <hyperlink ref="G1" r:id="rId15" display="https://dgraph.io/" xr:uid="{093C7231-5B52-479D-BC18-FC137E1C52DC}"/>
     <hyperlink ref="F2" r:id="rId16" display="https://www.graphql.com/" xr:uid="{C5BAE5E2-9F77-407D-8F6D-1A7440D4BEBA}"/>
-    <hyperlink ref="H2" r:id="rId17" display="https://aws.amazon.com/" xr:uid="{7DAE6AD9-E9F6-4FA5-A1F4-218BFFB0DF55}"/>
+    <hyperlink ref="C9" r:id="rId17" display="https://aws.amazon.com/" xr:uid="{7DAE6AD9-E9F6-4FA5-A1F4-218BFFB0DF55}"/>
     <hyperlink ref="C2" r:id="rId18" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
     <hyperlink ref="H1" r:id="rId19" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
     <hyperlink ref="I9" r:id="rId20" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
-    <hyperlink ref="C5" r:id="rId21" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
+    <hyperlink ref="A9" r:id="rId21" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
     <hyperlink ref="G6" r:id="rId22" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
     <hyperlink ref="D8" r:id="rId23" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
     <hyperlink ref="A6" r:id="rId24" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
     <hyperlink ref="F6" r:id="rId25" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
-    <hyperlink ref="F5" r:id="rId26" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
-    <hyperlink ref="G5" r:id="rId27" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
+    <hyperlink ref="E5" r:id="rId26" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
+    <hyperlink ref="F5" r:id="rId27" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
     <hyperlink ref="B6" r:id="rId28" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
     <hyperlink ref="E6" r:id="rId29" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
     <hyperlink ref="C6" r:id="rId30" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
@@ -2227,11 +2215,11 @@
     <hyperlink ref="D6" r:id="rId32" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
     <hyperlink ref="B5" r:id="rId33" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
     <hyperlink ref="B8" r:id="rId34" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
-    <hyperlink ref="H5" r:id="rId35" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
+    <hyperlink ref="G5" r:id="rId35" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
     <hyperlink ref="C8" r:id="rId36" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
     <hyperlink ref="A8" r:id="rId37" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
-    <hyperlink ref="E5" r:id="rId38" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
-    <hyperlink ref="D5" r:id="rId39" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
+    <hyperlink ref="D5" r:id="rId38" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
+    <hyperlink ref="C5" r:id="rId39" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
     <hyperlink ref="I8" location="'3DP'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
     <hyperlink ref="F9" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
     <hyperlink ref="I5" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
@@ -2247,6 +2235,102 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="17.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
+    <hyperlink ref="C3" r:id="rId3" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
+    <hyperlink ref="D3" r:id="rId4" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
+    <hyperlink ref="A3" r:id="rId5" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
+    <hyperlink ref="A1" r:id="rId6" xr:uid="{3F5F2594-99F8-4181-805F-853242DC599D}"/>
+    <hyperlink ref="B1" r:id="rId7" xr:uid="{2EFDC058-F929-4638-8C4B-2CD6ACB67EAF}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{85A265A7-61CB-4BA6-B33D-485504CA7C69}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{4970F63A-6650-4E89-8C7A-6E3C206522FC}"/>
+    <hyperlink ref="E1" location="'P1'!A1" display="Back" xr:uid="{E9156F95-6631-4E64-B94D-4291E0E6F910}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1A4D8-C98B-42C3-92B7-1FF5A02E82A7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -2274,10 +2358,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="62"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2488,7 +2572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548411AB-5CA4-4A69-A10D-C22AE534FF90}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2569,7 +2653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -2593,7 +2677,7 @@
       <c r="C1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="18"/>
@@ -2820,7 +2904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2838,236 +2922,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="62"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="41" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="41" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+        <v>188</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -3097,7 +3181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A19292-1EE5-456C-BFD4-2A064F7E975B}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -3112,7 +3196,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -3130,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B07CA-D3C7-42D7-902A-9BCAB1F5301C}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3144,125 +3228,184 @@
     <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B10" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>348</v>
-      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3271,282 +3414,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF493D-6533-45B8-B1A9-170AE766D772}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="E2" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="F2" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="46" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="B3" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="C3" s="61" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="D3" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="E3" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="F3" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="46" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="B4" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="C4" s="61" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="D4" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="E4" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="F4" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="46" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="B5" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="C5" s="61" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="D5" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="E5" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="F5" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="46" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="B6" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="C6" s="61" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="D6" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="E6" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="F6" s="60"/>
+    </row>
+    <row r="7" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="B8" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="C8" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="D8" s="61" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="E8" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="F8" s="60"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+    </row>
+    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="B10" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="C10" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="D10" s="61" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="E10" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="F10" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="46" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="B11" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="C11" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+    </row>
+    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="B13" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="C13" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="B15" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="C15" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="D15" s="61" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://embold.io/" xr:uid="{09129ED8-EAF3-4242-8BCF-AFCDC022C315}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.nagios.org/" xr:uid="{38744A8F-F834-4901-AB31-53F9B4D66FF8}"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://jfrog.com/" xr:uid="{BA2FA70C-F332-4383-8C50-6670A9D19726}"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://www.nginx.com/" xr:uid="{AC6E32E6-BAF4-47E3-B638-F2130F85DF48}"/>
-    <hyperlink ref="E2" r:id="rId5" display="https://www.datadoghq.com/" xr:uid="{4E8B0C06-4562-4D3D-AFDD-E596A31BA4AE}"/>
-    <hyperlink ref="F2" r:id="rId6" display="https://www.squarespace.com/" xr:uid="{96C2E3C1-5484-45A8-BDED-53F22145949F}"/>
-    <hyperlink ref="A3" r:id="rId7" display="https://kubernetes.io/" xr:uid="{7654ABAF-85F6-4567-98EB-D0D142582DC3}"/>
-    <hyperlink ref="B3" r:id="rId8" display="https://insomnia.rest/" xr:uid="{A2F7A9E4-D4AC-47A1-80C6-C7CB1E26AFFE}"/>
-    <hyperlink ref="C3" r:id="rId9" display="https://bugman.atlassian.net/jira/your-work" xr:uid="{15730078-2684-4DC9-B54F-203BCB5B379D}"/>
-    <hyperlink ref="D3" r:id="rId10" display="https://www.gitkraken.com/" xr:uid="{70870505-0DE6-4D35-BE06-37777A7F08D2}"/>
-    <hyperlink ref="E3" r:id="rId11" display="https://www.mutaz.net/ar.php" xr:uid="{1D504EF2-316F-45FB-88AB-31526D7FF2A9}"/>
-    <hyperlink ref="F3" r:id="rId12" display="https://www.w3.org/" xr:uid="{D0892A50-3133-4921-90D8-5F168A545EBC}"/>
-    <hyperlink ref="A4" r:id="rId13" display="https://www.w3schools.com/" xr:uid="{6382595A-8C27-41D8-8F0A-81FB9B3B426A}"/>
-    <hyperlink ref="B4" r:id="rId14" display="https://visualgo.net/en" xr:uid="{EEB14DB1-DEB6-4503-812F-F4E68AC8246A}"/>
-    <hyperlink ref="C4" r:id="rId15" display="https://algorithm-visualizer.org/" xr:uid="{490E414B-E6F5-4C42-A783-C896FEED7CD3}"/>
-    <hyperlink ref="D4" r:id="rId16" display="https://mailchimp.com/" xr:uid="{F2C07CCF-4E08-4A60-B85B-DEDC4573AA28}"/>
-    <hyperlink ref="E4" r:id="rId17" display="https://www.wappalyzer.com/" xr:uid="{887996CE-5EA1-4BAC-B50E-D1444E36D6B6}"/>
-    <hyperlink ref="F4" r:id="rId18" display="https://www.wix.com/" xr:uid="{45B7C37A-7819-4513-8C62-941A8D4FAC4F}"/>
-    <hyperlink ref="A5" r:id="rId19" display="https://app.diagrams.net/" xr:uid="{03991162-20B9-4F02-B022-E755A0E3AED1}"/>
-    <hyperlink ref="B5" r:id="rId20" display="https://onlinesim.io/" xr:uid="{BDCD2A28-8D6F-48F3-B4EB-7B56E7B26607}"/>
-    <hyperlink ref="C5" r:id="rId21" display="https://imagecompressor.com/" xr:uid="{A2BBF990-5FE9-4C61-AB94-0689B26FAC1D}"/>
-    <hyperlink ref="D5" r:id="rId22" display="https://app.creately.com/diagram/MIDrCwKN4OR/edit" xr:uid="{3D7EE268-80E8-49C2-9A66-B748924F2A2B}"/>
-    <hyperlink ref="E5" r:id="rId23" display="https://edabit.com/" xr:uid="{1783779C-25EB-4DD5-A383-DE5087AF4BAE}"/>
-    <hyperlink ref="F5" r:id="rId24" display="https://www.multcloud.com/" xr:uid="{F364012A-060B-49CE-A2C8-A5315CC3755D}"/>
-    <hyperlink ref="A6" r:id="rId25" display="https://www.htmlquick.com/reference/tags.html" xr:uid="{CD95A756-F269-47C6-A9F6-2FFAEE5BE49F}"/>
-    <hyperlink ref="B6" r:id="rId26" display="https://tableconvert.com/excel-to-html" xr:uid="{DF0FA0A5-AD97-4BDE-8A1B-DB4891A96589}"/>
-    <hyperlink ref="C6" r:id="rId27" display="https://htmlreference.io/" xr:uid="{C93094F3-79FF-4D23-9B02-AFA8640A1307}"/>
-    <hyperlink ref="D6" r:id="rId28" display="https://moatazabdalmageed.github.io/" xr:uid="{13A21E93-E633-4AD4-A986-18875718315B}"/>
-    <hyperlink ref="E6" r:id="rId29" display="https://my.apify.com/" xr:uid="{9405F4F5-86CD-470B-9B96-83D64763CE7C}"/>
-    <hyperlink ref="F6" r:id="rId30" display="https://cpanel.net/" xr:uid="{C1DD9E49-D529-412D-9D06-65E03C142D31}"/>
-    <hyperlink ref="A7" r:id="rId31" display="https://webflow.com/" xr:uid="{216C6FB0-2A22-4604-BB53-DDC1E930B6DA}"/>
-    <hyperlink ref="B7" r:id="rId32" display="https://www.remove.bg/" xr:uid="{A4292837-A376-44DD-B45D-D5E18531CD94}"/>
-    <hyperlink ref="C7" r:id="rId33" display="https://www.crucial.com/" xr:uid="{22D1F340-0122-459C-BF2C-1FC9EB547646}"/>
-    <hyperlink ref="D7" r:id="rId34" display="https://www.mathworks.com/products/matlab.html" xr:uid="{63978288-6A08-4EE6-8E16-DD1E43D09320}"/>
-    <hyperlink ref="E7" r:id="rId35" display="https://www.rondebruin.nl/efb/efb.htm?fbclid=IwAR2awvsLCaK3-kDjnfHZeu7h0YYagLuVCLBxcqss52KaTEXJgrxATRNJcnQ" xr:uid="{27A1BBAF-5962-4727-954D-1C18A4835A18}"/>
-    <hyperlink ref="A10" r:id="rId36" display="https://hive.com/" xr:uid="{E66A7066-05B2-417F-B720-246BECF888CA}"/>
-    <hyperlink ref="B10" r:id="rId37" display="https://www.r-project.org/" xr:uid="{5B5E5028-2E69-42DB-8457-6D71FBB8F992}"/>
-    <hyperlink ref="C10" r:id="rId38" display="https://hadoop.apache.org/" xr:uid="{0A9ACFA2-1F15-4816-BD96-BEADFDC7C372}"/>
-    <hyperlink ref="D10" r:id="rId39" display="https://www.ibm.com/eg-en/products/cognos-analytics" xr:uid="{E7A4076F-3C6C-44E2-A72A-68B8BC2BC968}"/>
-    <hyperlink ref="E10" r:id="rId40" display="https://www.tensorflow.org/" xr:uid="{FF64ED02-B682-4CD6-9199-3B0CE381CF3E}"/>
-    <hyperlink ref="A13" r:id="rId41" display="https://www.postgresql.org/docs/13/admin.html" xr:uid="{3972CA27-0148-4472-9EDF-5236152AFD6E}"/>
-    <hyperlink ref="B13" r:id="rId42" display="https://www.mongodb.com/" xr:uid="{6E002052-4772-49F8-B650-C529B7A3EA04}"/>
-    <hyperlink ref="C13" r:id="rId43" display="https://drawsql.app/" xr:uid="{519F9392-99FB-4481-B003-BED795D0CB4F}"/>
-    <hyperlink ref="D13" r:id="rId44" display="https://dev.mysql.com/doc/" xr:uid="{043F5986-1701-4645-AD6C-CA6D1FA921CE}"/>
-    <hyperlink ref="E13" r:id="rId45" display="https://localhost/phpmyadmin/index.php?route=/server/databases&amp;server=1" xr:uid="{2AF96C54-1E47-4CF8-BECB-39C377B4B7F1}"/>
-    <hyperlink ref="F13" r:id="rId46" display="https://sqlitebrowser.org/" xr:uid="{AA1C46EB-972F-47A4-AE16-63809EB9BDA6}"/>
-    <hyperlink ref="A14" r:id="rId47" display="https://www.sqlite.org/docs.html" xr:uid="{FD4A7563-020A-44E6-88E1-1A72817E8E96}"/>
-    <hyperlink ref="B14" r:id="rId48" display="https://dbdb.io/" xr:uid="{37FCADC4-A8C0-4018-A921-CB82C5D24068}"/>
-    <hyperlink ref="C14" r:id="rId49" display="https://mongoosejs.com/" xr:uid="{4EC40A90-EB52-47D4-BB60-279B899BEEAC}"/>
-    <hyperlink ref="A17" r:id="rId50" display="https://firebase.google.com/" xr:uid="{B62EC1AC-F943-454F-983B-B5622BE91B73}"/>
-    <hyperlink ref="B17" r:id="rId51" display="https://flutterawesome.com/" xr:uid="{3D651EC5-16C7-4C67-93F6-A0152BB8170C}"/>
-    <hyperlink ref="C17" r:id="rId52" display="https://aqueduct.io/" xr:uid="{0F05EAB3-5270-4A2C-B68F-266547F1247A}"/>
-    <hyperlink ref="A20" r:id="rId53" display="https://www.facebook.com/groups/583971245586828/" xr:uid="{A586A07F-8899-4E29-ACE6-9EDC2F8B8941}"/>
-    <hyperlink ref="B20" r:id="rId54" display="https://www.facebook.com/groups/392791044077830/" xr:uid="{871066E6-A405-4D91-B74E-895AFF250CBC}"/>
-    <hyperlink ref="C20" r:id="rId55" display="https://www.youtube.com/c/DrMohamedShaltout" xr:uid="{8D629B15-DFFF-4DCC-BA70-B0046BC7CD3E}"/>
-    <hyperlink ref="D20" r:id="rId56" display="https://goart.fotor.com/nft" xr:uid="{339A5056-9172-44C7-8234-EE4D60B0028B}"/>
-    <hyperlink ref="F17" location="'P1'!A1" display="Back" xr:uid="{D72280C1-AB92-4E28-AE64-DB70CF46970A}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://embold.io/" xr:uid="{09129ED8-EAF3-4242-8BCF-AFCDC022C315}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.nagios.org/" xr:uid="{38744A8F-F834-4901-AB31-53F9B4D66FF8}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://jfrog.com/" xr:uid="{BA2FA70C-F332-4383-8C50-6670A9D19726}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://www.nginx.com/" xr:uid="{AC6E32E6-BAF4-47E3-B638-F2130F85DF48}"/>
+    <hyperlink ref="E1" r:id="rId5" display="https://www.datadoghq.com/" xr:uid="{4E8B0C06-4562-4D3D-AFDD-E596A31BA4AE}"/>
+    <hyperlink ref="F1" r:id="rId6" display="https://www.squarespace.com/" xr:uid="{96C2E3C1-5484-45A8-BDED-53F22145949F}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://kubernetes.io/" xr:uid="{7654ABAF-85F6-4567-98EB-D0D142582DC3}"/>
+    <hyperlink ref="B2" r:id="rId8" display="https://insomnia.rest/" xr:uid="{A2F7A9E4-D4AC-47A1-80C6-C7CB1E26AFFE}"/>
+    <hyperlink ref="C2" r:id="rId9" display="https://bugman.atlassian.net/jira/your-work" xr:uid="{15730078-2684-4DC9-B54F-203BCB5B379D}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.gitkraken.com/" xr:uid="{70870505-0DE6-4D35-BE06-37777A7F08D2}"/>
+    <hyperlink ref="E2" r:id="rId11" display="https://www.mutaz.net/ar.php" xr:uid="{1D504EF2-316F-45FB-88AB-31526D7FF2A9}"/>
+    <hyperlink ref="F2" r:id="rId12" display="https://www.w3.org/" xr:uid="{D0892A50-3133-4921-90D8-5F168A545EBC}"/>
+    <hyperlink ref="A3" r:id="rId13" display="https://www.w3schools.com/" xr:uid="{6382595A-8C27-41D8-8F0A-81FB9B3B426A}"/>
+    <hyperlink ref="B3" r:id="rId14" display="https://visualgo.net/en" xr:uid="{EEB14DB1-DEB6-4503-812F-F4E68AC8246A}"/>
+    <hyperlink ref="C3" r:id="rId15" display="https://algorithm-visualizer.org/" xr:uid="{490E414B-E6F5-4C42-A783-C896FEED7CD3}"/>
+    <hyperlink ref="D3" r:id="rId16" display="https://mailchimp.com/" xr:uid="{F2C07CCF-4E08-4A60-B85B-DEDC4573AA28}"/>
+    <hyperlink ref="E3" r:id="rId17" display="https://www.wappalyzer.com/" xr:uid="{887996CE-5EA1-4BAC-B50E-D1444E36D6B6}"/>
+    <hyperlink ref="F3" r:id="rId18" display="https://www.wix.com/" xr:uid="{45B7C37A-7819-4513-8C62-941A8D4FAC4F}"/>
+    <hyperlink ref="A4" r:id="rId19" display="https://app.diagrams.net/" xr:uid="{03991162-20B9-4F02-B022-E755A0E3AED1}"/>
+    <hyperlink ref="B4" r:id="rId20" display="https://onlinesim.io/" xr:uid="{BDCD2A28-8D6F-48F3-B4EB-7B56E7B26607}"/>
+    <hyperlink ref="C4" r:id="rId21" display="https://imagecompressor.com/" xr:uid="{A2BBF990-5FE9-4C61-AB94-0689B26FAC1D}"/>
+    <hyperlink ref="D4" r:id="rId22" display="https://app.creately.com/diagram/MIDrCwKN4OR/edit" xr:uid="{3D7EE268-80E8-49C2-9A66-B748924F2A2B}"/>
+    <hyperlink ref="E4" r:id="rId23" display="https://edabit.com/" xr:uid="{1783779C-25EB-4DD5-A383-DE5087AF4BAE}"/>
+    <hyperlink ref="F4" r:id="rId24" display="https://www.multcloud.com/" xr:uid="{F364012A-060B-49CE-A2C8-A5315CC3755D}"/>
+    <hyperlink ref="A5" r:id="rId25" display="https://www.htmlquick.com/reference/tags.html" xr:uid="{CD95A756-F269-47C6-A9F6-2FFAEE5BE49F}"/>
+    <hyperlink ref="B5" r:id="rId26" display="https://tableconvert.com/excel-to-html" xr:uid="{DF0FA0A5-AD97-4BDE-8A1B-DB4891A96589}"/>
+    <hyperlink ref="C5" r:id="rId27" display="https://htmlreference.io/" xr:uid="{C93094F3-79FF-4D23-9B02-AFA8640A1307}"/>
+    <hyperlink ref="D5" r:id="rId28" display="https://moatazabdalmageed.github.io/" xr:uid="{13A21E93-E633-4AD4-A986-18875718315B}"/>
+    <hyperlink ref="E5" r:id="rId29" display="https://my.apify.com/" xr:uid="{9405F4F5-86CD-470B-9B96-83D64763CE7C}"/>
+    <hyperlink ref="F5" r:id="rId30" display="https://cpanel.net/" xr:uid="{C1DD9E49-D529-412D-9D06-65E03C142D31}"/>
+    <hyperlink ref="A6" r:id="rId31" display="https://webflow.com/" xr:uid="{216C6FB0-2A22-4604-BB53-DDC1E930B6DA}"/>
+    <hyperlink ref="B6" r:id="rId32" display="https://www.remove.bg/" xr:uid="{A4292837-A376-44DD-B45D-D5E18531CD94}"/>
+    <hyperlink ref="C6" r:id="rId33" display="https://www.crucial.com/" xr:uid="{22D1F340-0122-459C-BF2C-1FC9EB547646}"/>
+    <hyperlink ref="D6" r:id="rId34" display="https://www.mathworks.com/products/matlab.html" xr:uid="{63978288-6A08-4EE6-8E16-DD1E43D09320}"/>
+    <hyperlink ref="E6" r:id="rId35" display="https://www.rondebruin.nl/efb/efb.htm?fbclid=IwAR2awvsLCaK3-kDjnfHZeu7h0YYagLuVCLBxcqss52KaTEXJgrxATRNJcnQ" xr:uid="{27A1BBAF-5962-4727-954D-1C18A4835A18}"/>
+    <hyperlink ref="A8" r:id="rId36" display="https://hive.com/" xr:uid="{E66A7066-05B2-417F-B720-246BECF888CA}"/>
+    <hyperlink ref="B8" r:id="rId37" display="https://www.r-project.org/" xr:uid="{5B5E5028-2E69-42DB-8457-6D71FBB8F992}"/>
+    <hyperlink ref="C8" r:id="rId38" display="https://hadoop.apache.org/" xr:uid="{0A9ACFA2-1F15-4816-BD96-BEADFDC7C372}"/>
+    <hyperlink ref="D8" r:id="rId39" display="https://www.ibm.com/eg-en/products/cognos-analytics" xr:uid="{E7A4076F-3C6C-44E2-A72A-68B8BC2BC968}"/>
+    <hyperlink ref="E8" r:id="rId40" display="https://www.tensorflow.org/" xr:uid="{FF64ED02-B682-4CD6-9199-3B0CE381CF3E}"/>
+    <hyperlink ref="A10" r:id="rId41" display="https://www.postgresql.org/docs/13/admin.html" xr:uid="{3972CA27-0148-4472-9EDF-5236152AFD6E}"/>
+    <hyperlink ref="B10" r:id="rId42" display="https://www.mongodb.com/" xr:uid="{6E002052-4772-49F8-B650-C529B7A3EA04}"/>
+    <hyperlink ref="C10" r:id="rId43" display="https://drawsql.app/" xr:uid="{519F9392-99FB-4481-B003-BED795D0CB4F}"/>
+    <hyperlink ref="D10" r:id="rId44" display="https://dev.mysql.com/doc/" xr:uid="{043F5986-1701-4645-AD6C-CA6D1FA921CE}"/>
+    <hyperlink ref="E10" r:id="rId45" display="https://localhost/phpmyadmin/index.php?route=/server/databases&amp;server=1" xr:uid="{2AF96C54-1E47-4CF8-BECB-39C377B4B7F1}"/>
+    <hyperlink ref="F10" r:id="rId46" display="https://sqlitebrowser.org/" xr:uid="{AA1C46EB-972F-47A4-AE16-63809EB9BDA6}"/>
+    <hyperlink ref="A11" r:id="rId47" display="https://www.sqlite.org/docs.html" xr:uid="{FD4A7563-020A-44E6-88E1-1A72817E8E96}"/>
+    <hyperlink ref="B11" r:id="rId48" display="https://dbdb.io/" xr:uid="{37FCADC4-A8C0-4018-A921-CB82C5D24068}"/>
+    <hyperlink ref="C11" r:id="rId49" display="https://mongoosejs.com/" xr:uid="{4EC40A90-EB52-47D4-BB60-279B899BEEAC}"/>
+    <hyperlink ref="A13" r:id="rId50" display="https://firebase.google.com/" xr:uid="{B62EC1AC-F943-454F-983B-B5622BE91B73}"/>
+    <hyperlink ref="B13" r:id="rId51" display="https://flutterawesome.com/" xr:uid="{3D651EC5-16C7-4C67-93F6-A0152BB8170C}"/>
+    <hyperlink ref="C13" r:id="rId52" display="https://aqueduct.io/" xr:uid="{0F05EAB3-5270-4A2C-B68F-266547F1247A}"/>
+    <hyperlink ref="A15" r:id="rId53" display="https://www.facebook.com/groups/583971245586828/" xr:uid="{A586A07F-8899-4E29-ACE6-9EDC2F8B8941}"/>
+    <hyperlink ref="B15" r:id="rId54" display="https://www.facebook.com/groups/392791044077830/" xr:uid="{871066E6-A405-4D91-B74E-895AFF250CBC}"/>
+    <hyperlink ref="C15" r:id="rId55" display="https://www.youtube.com/c/DrMohamedShaltout" xr:uid="{8D629B15-DFFF-4DCC-BA70-B0046BC7CD3E}"/>
+    <hyperlink ref="D15" r:id="rId56" display="https://goart.fotor.com/nft" xr:uid="{339A5056-9172-44C7-8234-EE4D60B0028B}"/>
+    <hyperlink ref="F13" location="'P1'!A1" display="Back" xr:uid="{D72280C1-AB92-4E28-AE64-DB70CF46970A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3567,39 +3751,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3617,202 +3801,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C88D73-EAF2-466A-B8F2-2CB06EEB36D8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="25.28515625" style="30"/>
+    <col min="1" max="16384" width="25.28515625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="58" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-    </row>
-    <row r="8" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
-        <v>351</v>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="25"/>
+      <c r="E12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3836,40 +4011,118 @@
     <hyperlink ref="F2" r:id="rId13" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
     <hyperlink ref="G2" r:id="rId14" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
     <hyperlink ref="H2" r:id="rId15" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
-    <hyperlink ref="G3" r:id="rId16" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
+    <hyperlink ref="E3" r:id="rId16" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
     <hyperlink ref="A3" r:id="rId17" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
     <hyperlink ref="B3" r:id="rId18" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
-    <hyperlink ref="C3" r:id="rId19" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
-    <hyperlink ref="D3" r:id="rId20" location="EveningNight" display="https://uigradients.com/ - EveningNight" xr:uid="{24A14883-F186-4435-9FE3-E4D532A88C33}"/>
-    <hyperlink ref="E3" r:id="rId21" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
-    <hyperlink ref="F3" r:id="rId22" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
-    <hyperlink ref="B5" r:id="rId23" xr:uid="{B3848B6B-EF81-4123-9D54-3F216A9403C4}"/>
-    <hyperlink ref="A5" r:id="rId24" xr:uid="{04FF4B12-5F4C-4C47-89BB-24A1E5A3D2C2}"/>
-    <hyperlink ref="C5" r:id="rId25" xr:uid="{973FE87C-1687-47C2-BBFE-76106B70CE04}"/>
-    <hyperlink ref="D5" r:id="rId26" xr:uid="{5C6F3937-E48C-4A21-85F6-08E8CBC9B580}"/>
-    <hyperlink ref="E5" r:id="rId27" xr:uid="{F0C7148A-AA1A-4B8C-8320-1C324F0F8FBA}"/>
-    <hyperlink ref="C6" r:id="rId28" xr:uid="{75AAAD14-2C79-4A37-8452-DB02C8AEED3D}"/>
-    <hyperlink ref="G5" r:id="rId29" xr:uid="{08560A5A-09EB-4C21-95EC-D034AA0D8994}"/>
-    <hyperlink ref="H5" r:id="rId30" xr:uid="{048A5D56-4743-4517-A315-E9347D14BBDC}"/>
-    <hyperlink ref="A6" r:id="rId31" xr:uid="{1A36D469-174D-43BD-8BBF-2B910EFF0A5B}"/>
-    <hyperlink ref="A8" r:id="rId32" xr:uid="{1F27A86A-4F6B-42DF-A7B1-3747D63702DA}"/>
-    <hyperlink ref="B8" r:id="rId33" xr:uid="{836F1F53-5186-4189-99EC-723DBA51655D}"/>
-    <hyperlink ref="C8" r:id="rId34" xr:uid="{F3FD3167-8618-4E2D-8092-39F66DC3B051}"/>
-    <hyperlink ref="D8" r:id="rId35" xr:uid="{7E44949E-94C5-4F56-A796-AB39F7CF7742}"/>
-    <hyperlink ref="A10:D10" r:id="rId36" display="Does bootstrap have builtin padding and margin classes?" xr:uid="{687F7D5A-5D50-4B59-83EA-D654F9326B93}"/>
+    <hyperlink ref="C3" r:id="rId19" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
+    <hyperlink ref="D3" r:id="rId20" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
+    <hyperlink ref="B5" r:id="rId21" xr:uid="{B3848B6B-EF81-4123-9D54-3F216A9403C4}"/>
+    <hyperlink ref="A5" r:id="rId22" xr:uid="{04FF4B12-5F4C-4C47-89BB-24A1E5A3D2C2}"/>
+    <hyperlink ref="C5" r:id="rId23" xr:uid="{973FE87C-1687-47C2-BBFE-76106B70CE04}"/>
+    <hyperlink ref="D5" r:id="rId24" xr:uid="{5C6F3937-E48C-4A21-85F6-08E8CBC9B580}"/>
+    <hyperlink ref="E5" r:id="rId25" xr:uid="{F0C7148A-AA1A-4B8C-8320-1C324F0F8FBA}"/>
+    <hyperlink ref="C6" r:id="rId26" xr:uid="{75AAAD14-2C79-4A37-8452-DB02C8AEED3D}"/>
+    <hyperlink ref="F5" r:id="rId27" xr:uid="{08560A5A-09EB-4C21-95EC-D034AA0D8994}"/>
+    <hyperlink ref="G5" r:id="rId28" xr:uid="{048A5D56-4743-4517-A315-E9347D14BBDC}"/>
+    <hyperlink ref="A6" r:id="rId29" xr:uid="{1A36D469-174D-43BD-8BBF-2B910EFF0A5B}"/>
+    <hyperlink ref="A8" r:id="rId30" xr:uid="{1F27A86A-4F6B-42DF-A7B1-3747D63702DA}"/>
+    <hyperlink ref="B8" r:id="rId31" xr:uid="{836F1F53-5186-4189-99EC-723DBA51655D}"/>
+    <hyperlink ref="C8" r:id="rId32" xr:uid="{F3FD3167-8618-4E2D-8092-39F66DC3B051}"/>
+    <hyperlink ref="D8" r:id="rId33" xr:uid="{7E44949E-94C5-4F56-A796-AB39F7CF7742}"/>
+    <hyperlink ref="A10:D10" r:id="rId34" display="Does bootstrap have builtin padding and margin classes?" xr:uid="{687F7D5A-5D50-4B59-83EA-D654F9326B93}"/>
     <hyperlink ref="A1" location="'P1'!A1" display="Back" xr:uid="{3DD3BC3D-9236-4BBC-A3F3-010E0E6638AC}"/>
-    <hyperlink ref="B6" r:id="rId37" xr:uid="{48D8D0B5-A460-4992-B1EB-7D4BF959A80B}"/>
-    <hyperlink ref="D6" r:id="rId38" xr:uid="{35735AE5-DD02-468D-8B87-14B7AD7BC0EC}"/>
-    <hyperlink ref="H8" r:id="rId39" xr:uid="{C963CC36-DE09-4AA5-B038-646796906F21}"/>
-    <hyperlink ref="E6" r:id="rId40" xr:uid="{E7842B01-26E8-4DAA-9371-DB04ABBCDBFD}"/>
-    <hyperlink ref="F6" r:id="rId41" xr:uid="{012F31ED-CECB-418B-A0B3-BBC299D62855}"/>
+    <hyperlink ref="B6" r:id="rId35" xr:uid="{48D8D0B5-A460-4992-B1EB-7D4BF959A80B}"/>
+    <hyperlink ref="D6" r:id="rId36" xr:uid="{35735AE5-DD02-468D-8B87-14B7AD7BC0EC}"/>
+    <hyperlink ref="H8" r:id="rId37" xr:uid="{C963CC36-DE09-4AA5-B038-646796906F21}"/>
+    <hyperlink ref="H5" r:id="rId38" xr:uid="{E7842B01-26E8-4DAA-9371-DB04ABBCDBFD}"/>
+    <hyperlink ref="H3" location="'CSS READY'!A1" display="CSS Ready Tools" xr:uid="{215191BA-82B8-4988-910F-C36A557ED65C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41D6942-5B93-45F4-B7D5-69DDE0C76AF4}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="hype4.academy" xr:uid="{40D2F47E-05CD-43A4-87BF-92E44F42F5EF}"/>
+    <hyperlink ref="C1" r:id="rId2" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
+    <hyperlink ref="A1" location="'UI-UX'!A1" display="Back" xr:uid="{0A621C20-A287-4F61-A93C-89AE3624012D}"/>
+    <hyperlink ref="D1" r:id="rId3" location="EveningNight" display="https://uigradients.com/ - EveningNight" xr:uid="{24A14883-F186-4435-9FE3-E4D532A88C33}"/>
+    <hyperlink ref="B2" r:id="rId4" display="cssgradient" xr:uid="{012F31ED-CECB-418B-A0B3-BBC299D62855}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{BB0E2F21-F154-4373-AFAE-4A0B4E811F3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE076C-BE8B-4E45-A6A9-3829C5090764}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3905,7 +4158,7 @@
       <c r="G1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3951,7 +4204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0870F34A-33AD-43D9-9529-E493C8468E83}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -3965,157 +4218,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="A7" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -4217,7 +4470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBDEB62-6BA5-4C28-B051-2DE4BB52AF06}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -4227,219 +4480,219 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="19.42578125" style="31"/>
+    <col min="1" max="16384" width="19.42578125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="B8" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D8" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>239</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-    </row>
-    <row r="7" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4494,152 +4747,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="17.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{26606878-05CE-4034-AEA3-D12B5D9B6BCA}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{738F047D-58CC-41B9-8C9C-F5075ED3307E}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{8139704A-7B46-49EA-97CF-1130B59301A0}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{2AC00275-60C6-4A74-B5E4-5C0F717B5923}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{30E1A108-2237-45FB-B557-6F3E0A7AB13B}"/>
-    <hyperlink ref="C2" r:id="rId6" display="ASP NET" xr:uid="{742100F8-AF9F-40E1-B628-B8A13266D30D}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{F1752469-4520-4A9A-8DD1-70BAF9877383}"/>
-    <hyperlink ref="B6" r:id="rId8" display="Facebook | Power Platform" xr:uid="{F96E8DDE-29EB-43E4-BFF3-38B688D2E4D0}"/>
-    <hyperlink ref="B7" r:id="rId9" display="Youtube |  Microsoft Power Apps" xr:uid="{7ABF023A-04D9-4DE2-9917-9AF179B9B875}"/>
-    <hyperlink ref="C7" r:id="rId10" display="Youtube | Fouad Zawadi" xr:uid="{7A321587-6356-4BAF-935E-A8E5D9157507}"/>
-    <hyperlink ref="D7" r:id="rId11" display="Shaban D365" xr:uid="{A063E583-4868-4490-9C32-15A6AE1A104F}"/>
-    <hyperlink ref="A7" r:id="rId12" display="Microsoft Power Platform" xr:uid="{A8FEFDCD-288F-4173-9CF5-5EA8D81087C0}"/>
-    <hyperlink ref="C1" r:id="rId13" xr:uid="{DE22849F-A793-49D9-95CD-F889C14D3606}"/>
-    <hyperlink ref="A4" r:id="rId14" xr:uid="{3F5F2594-99F8-4181-805F-853242DC599D}"/>
-    <hyperlink ref="B4" r:id="rId15" xr:uid="{2EFDC058-F929-4638-8C4B-2CD6ACB67EAF}"/>
-    <hyperlink ref="C6" r:id="rId16" xr:uid="{85A265A7-61CB-4BA6-B33D-485504CA7C69}"/>
-    <hyperlink ref="D6" r:id="rId17" xr:uid="{4970F63A-6650-4E89-8C7A-6E3C206522FC}"/>
-    <hyperlink ref="E1" location="'P1'!A1" display="Back" xr:uid="{E9156F95-6631-4E64-B94D-4291E0E6F910}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
-</worksheet>
 </file>
--- a/HTML/0 Excel SRC Files/P1 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/P1 Excel.xlsx
@@ -8,27 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D05B4BF-C2CD-4B9A-8B42-835BF9109C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC5FB1-21EE-4337-8906-FAD143268DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="P1" sheetId="1" r:id="rId1"/>
-    <sheet name="SEC" sheetId="16" r:id="rId2"/>
-    <sheet name="More" sheetId="15" r:id="rId3"/>
-    <sheet name="OPL" sheetId="14" r:id="rId4"/>
-    <sheet name="UI-UX" sheetId="13" r:id="rId5"/>
-    <sheet name="CSS READY" sheetId="17" r:id="rId6"/>
-    <sheet name="Problem Solving" sheetId="11" r:id="rId7"/>
-    <sheet name="$" sheetId="2" r:id="rId8"/>
-    <sheet name="JS" sheetId="3" r:id="rId9"/>
-    <sheet name="Microsoft" sheetId="4" r:id="rId10"/>
-    <sheet name="3DP" sheetId="5" r:id="rId11"/>
-    <sheet name="Py" sheetId="6" r:id="rId12"/>
-    <sheet name="Tips" sheetId="9" r:id="rId13"/>
-    <sheet name="Software" sheetId="7" r:id="rId14"/>
-    <sheet name="Graphics" sheetId="10" r:id="rId15"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="G" sheetId="21" r:id="rId2"/>
+    <sheet name="SEC" sheetId="16" r:id="rId3"/>
+    <sheet name="More" sheetId="15" r:id="rId4"/>
+    <sheet name="OPL" sheetId="14" r:id="rId5"/>
+    <sheet name="UI-UX" sheetId="13" r:id="rId6"/>
+    <sheet name="CSS READY" sheetId="17" r:id="rId7"/>
+    <sheet name="Problem Solving" sheetId="11" r:id="rId8"/>
+    <sheet name="$" sheetId="2" r:id="rId9"/>
+    <sheet name="JS" sheetId="3" r:id="rId10"/>
+    <sheet name="Microsoft" sheetId="4" r:id="rId11"/>
+    <sheet name="3DP" sheetId="5" r:id="rId12"/>
+    <sheet name="Py" sheetId="6" r:id="rId13"/>
+    <sheet name="Tips" sheetId="9" r:id="rId14"/>
+    <sheet name="Software" sheetId="7" r:id="rId15"/>
+    <sheet name="Graphics" sheetId="10" r:id="rId16"/>
+    <sheet name="AR" sheetId="18" r:id="rId17"/>
+    <sheet name="EN" sheetId="19" r:id="rId18"/>
+    <sheet name="Other" sheetId="20" r:id="rId19"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">AR!$A$1:$D$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="534">
   <si>
     <t>PHP Ref</t>
   </si>
@@ -1093,13 +1100,567 @@
   </si>
   <si>
     <t>get waves</t>
+  </si>
+  <si>
+    <t>Channel Name</t>
+  </si>
+  <si>
+    <t>Most Interest</t>
+  </si>
+  <si>
+    <t>CodoGraphia</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Dev Creed</t>
+  </si>
+  <si>
+    <t>Power Platform
+Geeks</t>
+  </si>
+  <si>
+    <t>Power Apps</t>
+  </si>
+  <si>
+    <t>محمود سمير</t>
+  </si>
+  <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Dynamics 365</t>
+  </si>
+  <si>
+    <t>Passionate Coders</t>
+  </si>
+  <si>
+    <t>عمرو غنيم</t>
+  </si>
+  <si>
+    <t>احمد الامام</t>
+  </si>
+  <si>
+    <t>G. Topics</t>
+  </si>
+  <si>
+    <t>Mostafa Ibrahim</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Software Structure</t>
+  </si>
+  <si>
+    <t>محمد الشريف</t>
+  </si>
+  <si>
+    <t>Programming Talks</t>
+  </si>
+  <si>
+    <t>Tech Talks 
+Arabic</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>علوم المستقبل</t>
+  </si>
+  <si>
+    <t>PowerAps</t>
+  </si>
+  <si>
+    <t>محمد رضوان</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Software struct</t>
+  </si>
+  <si>
+    <t>Datastructure</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>ال زيرو</t>
+  </si>
+  <si>
+    <t>Frond End</t>
+  </si>
+  <si>
+    <t>محمود زهدي</t>
+  </si>
+  <si>
+    <t>Tecno U</t>
+  </si>
+  <si>
+    <t>أكاديمية إمام</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>د احمد سالم</t>
+  </si>
+  <si>
+    <t>CS Core</t>
+  </si>
+  <si>
+    <t>احمد علي</t>
+  </si>
+  <si>
+    <t>Prog Talks</t>
+  </si>
+  <si>
+    <t>Software ArchTalks</t>
+  </si>
+  <si>
+    <t>Mr Algorithms</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>Micro Services</t>
+  </si>
+  <si>
+    <t>English
+CS</t>
+  </si>
+  <si>
+    <t>KMR Script</t>
+  </si>
+  <si>
+    <t>خالد السعداني</t>
+  </si>
+  <si>
+    <t>Unique Coderz</t>
+  </si>
+  <si>
+    <t>ميادة هدود</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>محمد يحيى</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>محمد رضا</t>
+  </si>
+  <si>
+    <t>Code Zone</t>
+  </si>
+  <si>
+    <t>Pragma</t>
+  </si>
+  <si>
+    <t>احمد فتحي</t>
+  </si>
+  <si>
+    <t>محمد أبوسريع</t>
+  </si>
+  <si>
+    <t>محمد مشرف</t>
+  </si>
+  <si>
+    <t>عادل صبور</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>FCIH OCW</t>
+  </si>
+  <si>
+    <t>محمد الدسوقى</t>
+  </si>
+  <si>
+    <t>عادل نعيم</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>احمد صيام</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Yalla Code</t>
+  </si>
+  <si>
+    <t>اسلام محمود</t>
+  </si>
+  <si>
+    <t>غريب الشيخ</t>
+  </si>
+  <si>
+    <t>رامي حكم</t>
+  </si>
+  <si>
+    <t>حسين عبدالله</t>
+  </si>
+  <si>
+    <t>Metwally Labs</t>
+  </si>
+  <si>
+    <t>درة الاكواد</t>
+  </si>
+  <si>
+    <t>Functional Prog</t>
+  </si>
+  <si>
+    <t>Mobarmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Net </t>
+  </si>
+  <si>
+    <t>G. Talks</t>
+  </si>
+  <si>
+    <t>سامح دعبس</t>
+  </si>
+  <si>
+    <t>محمود حمزة</t>
+  </si>
+  <si>
+    <t>احمد سمير</t>
+  </si>
+  <si>
+    <t>احمد ربيع</t>
+  </si>
+  <si>
+    <t>JavaScript Mastery</t>
+  </si>
+  <si>
+    <t>Aaron Jack</t>
+  </si>
+  <si>
+    <t>Traversy Media</t>
+  </si>
+  <si>
+    <t>Web Simplified</t>
+  </si>
+  <si>
+    <t>Coding Addict</t>
+  </si>
+  <si>
+    <t>Andre Madarang</t>
+  </si>
+  <si>
+    <t>Mosh</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>New Boston</t>
+  </si>
+  <si>
+    <t>Bedimcode</t>
+  </si>
+  <si>
+    <t>Md bootstrap</t>
+  </si>
+  <si>
+    <t>Divinector</t>
+  </si>
+  <si>
+    <t>Web Designer</t>
+  </si>
+  <si>
+    <t>Hussein Nasser</t>
+  </si>
+  <si>
+    <t>Null Byte WHT</t>
+  </si>
+  <si>
+    <t>Glich</t>
+  </si>
+  <si>
+    <t>Geeks Lesson</t>
+  </si>
+  <si>
+    <t>Dev dojo</t>
+  </si>
+  <si>
+    <t>Gennady Korotkevich</t>
+  </si>
+  <si>
+    <t>Telmo Sampaio</t>
+  </si>
+  <si>
+    <t>Easy Tutorials</t>
+  </si>
+  <si>
+    <t>Mohamad Lawand</t>
+  </si>
+  <si>
+    <t>c#</t>
+  </si>
+  <si>
+    <t>ASP.NET</t>
+  </si>
+  <si>
+    <t>Academind</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Code Camp</t>
+  </si>
+  <si>
+    <t>Coding Train</t>
+  </si>
+  <si>
+    <t>Kudvenkat</t>
+  </si>
+  <si>
+    <t>Coding Nepal</t>
+  </si>
+  <si>
+    <t>code with sadee</t>
+  </si>
+  <si>
+    <t>Code Monkey</t>
+  </si>
+  <si>
+    <t>Derek Banas</t>
+  </si>
+  <si>
+    <t>Net Ninja</t>
+  </si>
+  <si>
+    <t>Neso Academy</t>
+  </si>
+  <si>
+    <t>الويب خطوة سهلة</t>
+  </si>
+  <si>
+    <t>Mohamed Ebrahim
+Saad</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>أحمد عطيفي</t>
+  </si>
+  <si>
+    <t>Troubleshooter 
+Youssef Shawky</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code2Start </t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>Eslam Khder</t>
+  </si>
+  <si>
+    <t>5dmat-web</t>
+  </si>
+  <si>
+    <t>Mohamed Amr</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codezilla </t>
+  </si>
+  <si>
+    <t>General Talks</t>
+  </si>
+  <si>
+    <t>محمد شوشان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flutter </t>
+  </si>
+  <si>
+    <t>Ali Shahin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد فتحي </t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Darrel Wilson</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP - Laravel </t>
+  </si>
+  <si>
+    <t>Mora Soft</t>
+  </si>
+  <si>
+    <t>EraaSoft</t>
+  </si>
+  <si>
+    <t>عبدالرحمن عيد</t>
+  </si>
+  <si>
+    <t>احمد امام - بروفشنال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataScience - Py - Ai </t>
+  </si>
+  <si>
+    <t>حسام حوراني</t>
+  </si>
+  <si>
+    <t>DataScience</t>
+  </si>
+  <si>
+    <t>هشام عاصم</t>
+  </si>
+  <si>
+    <t>دينا جرجس</t>
+  </si>
+  <si>
+    <t>Garage Edu</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>DS &amp; SE</t>
+  </si>
+  <si>
+    <t>Elgohary AI</t>
+  </si>
+  <si>
+    <t>elgeish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> محمود أحمد</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>احمد بازي</t>
+  </si>
+  <si>
+    <t>Secuirty - Network</t>
+  </si>
+  <si>
+    <t>ابراهيم حجازي</t>
+  </si>
+  <si>
+    <t>Secuirty</t>
+  </si>
+  <si>
+    <t>Nakerah Network</t>
+  </si>
+  <si>
+    <t>حسان سعد</t>
+  </si>
+  <si>
+    <t>Netriders Academy</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>HS NETWORKS</t>
+  </si>
+  <si>
+    <t>عبدالله السكري</t>
+  </si>
+  <si>
+    <t>Testing  - Quality</t>
+  </si>
+  <si>
+    <t>نظام</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Software Quality</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Arabic Channels</t>
+  </si>
+  <si>
+    <t>English Channels</t>
+  </si>
+  <si>
+    <t>Others Channels</t>
+  </si>
+  <si>
+    <t>Facebook Groups</t>
+  </si>
+  <si>
+    <t>Flutter بالعربي</t>
+  </si>
+  <si>
+    <t>Laravel Arabia - لارافيل بالعربي</t>
+  </si>
+  <si>
+    <t>Laravel Community</t>
+  </si>
+  <si>
+    <t>Laravel Developers Advanced</t>
+  </si>
+  <si>
+    <t>لارافلاوي Laravelawy Group</t>
+  </si>
+  <si>
+    <t>Laravel medium to advanced topics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,8 +1815,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,8 +1926,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1467,17 +2113,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1596,51 +2395,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1653,6 +2407,217 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1937,245 +2902,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="48.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="25.140625" style="25"/>
-    <col min="8" max="8" width="23.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="25.140625" style="25"/>
+    <col min="1" max="7" width="25.140625" style="24"/>
+    <col min="8" max="8" width="23.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="25.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" ht="54" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="39" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="4" spans="1:10" ht="3.75" customHeight="1">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A5" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A6" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="39" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="4.5" customHeight="1">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="39" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="59.25" customHeight="1">
+      <c r="A9" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="26"/>
-    </row>
-    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="26"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A10" s="71" t="s">
+        <v>524</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71" t="s">
+        <v>526</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71" t="s">
+        <v>527</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="48.75" customHeight="1">
+      <c r="J11" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="48.75" customHeight="1">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="48.75" customHeight="1">
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="48.75" customHeight="1">
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="48.75" customHeight="1">
+      <c r="J16" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" location="JS!A1" display="JS" xr:uid="{B324B7D1-0977-4A7C-BDA4-D5C04D851575}"/>
@@ -2183,43 +3165,41 @@
     <hyperlink ref="H9" location="Software!A1" display="Other Software" xr:uid="{6D48D2BD-A81D-41A6-A29F-7F33245D14B0}"/>
     <hyperlink ref="B3" r:id="rId1" display="https://www.jenkins.io/" xr:uid="{3E7B1E85-45A6-4B7F-8C70-DADE2615BCF5}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://hub.docker.com/" xr:uid="{F91CC9AF-9D27-4120-ABDF-3DAA5D3A0540}"/>
-    <hyperlink ref="A1" r:id="rId3" display="https://www.elastic.co/" xr:uid="{4BF3C7CD-37E8-4990-B50F-B0AA27995967}"/>
-    <hyperlink ref="G2" r:id="rId4" display="https://socket.io/" xr:uid="{6154548E-A188-4189-B13D-7C1F67C97B67}"/>
-    <hyperlink ref="A3" r:id="rId5" display="https://www.phoenixframework.org/" xr:uid="{D04CC59A-A3DA-4614-BBD5-844631708636}"/>
-    <hyperlink ref="D1" r:id="rId6" display="https://memcached.org/" xr:uid="{F5B1D6BF-BC8F-4ABA-B744-79361E67826C}"/>
-    <hyperlink ref="E2" r:id="rId7" display="https://bower.io/" xr:uid="{2948DE47-70E7-4485-BE0F-718E84FC4BEE}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.haskell.org/" xr:uid="{EB52E45C-4DEB-4FAC-B85B-C80D6149DAF1}"/>
-    <hyperlink ref="B2" r:id="rId9" display="https://www.scala-lang.org/" xr:uid="{9555B657-7A70-4225-BB07-76E6B412A1CC}"/>
-    <hyperlink ref="B1" r:id="rId10" display="https://www.rabbitmq.com/" xr:uid="{377861E7-D3E8-4DCC-8F1B-A3365FC3412D}"/>
-    <hyperlink ref="E1" r:id="rId11" display="https://nsq.io/" xr:uid="{8DF2D701-1525-4E94-BAFA-C73703EE09EF}"/>
-    <hyperlink ref="C1" r:id="rId12" display="https://redis.io/" xr:uid="{B45D0004-7B99-4C07-9656-619FEE6239C4}"/>
-    <hyperlink ref="D2" r:id="rId13" display="https://yeoman.io/" xr:uid="{85CFFA58-938C-4F81-9E13-16331FD4FFA3}"/>
-    <hyperlink ref="F1" r:id="rId14" display="https://hasura.io/" xr:uid="{B8831BE2-9CF1-418D-BF4D-D3A4A8AC7B70}"/>
-    <hyperlink ref="G1" r:id="rId15" display="https://dgraph.io/" xr:uid="{093C7231-5B52-479D-BC18-FC137E1C52DC}"/>
-    <hyperlink ref="F2" r:id="rId16" display="https://www.graphql.com/" xr:uid="{C5BAE5E2-9F77-407D-8F6D-1A7440D4BEBA}"/>
-    <hyperlink ref="C9" r:id="rId17" display="https://aws.amazon.com/" xr:uid="{7DAE6AD9-E9F6-4FA5-A1F4-218BFFB0DF55}"/>
-    <hyperlink ref="C2" r:id="rId18" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
-    <hyperlink ref="H1" r:id="rId19" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
-    <hyperlink ref="I9" r:id="rId20" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
-    <hyperlink ref="A9" r:id="rId21" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
-    <hyperlink ref="G6" r:id="rId22" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
-    <hyperlink ref="D8" r:id="rId23" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
-    <hyperlink ref="A6" r:id="rId24" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
-    <hyperlink ref="F6" r:id="rId25" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
-    <hyperlink ref="E5" r:id="rId26" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
-    <hyperlink ref="F5" r:id="rId27" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
-    <hyperlink ref="B6" r:id="rId28" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
-    <hyperlink ref="E6" r:id="rId29" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
-    <hyperlink ref="C6" r:id="rId30" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
-    <hyperlink ref="A5" r:id="rId31" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
-    <hyperlink ref="D6" r:id="rId32" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
-    <hyperlink ref="B5" r:id="rId33" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
-    <hyperlink ref="B8" r:id="rId34" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
-    <hyperlink ref="G5" r:id="rId35" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
-    <hyperlink ref="C8" r:id="rId36" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
-    <hyperlink ref="A8" r:id="rId37" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
-    <hyperlink ref="D5" r:id="rId38" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
-    <hyperlink ref="C5" r:id="rId39" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://socket.io/" xr:uid="{6154548E-A188-4189-B13D-7C1F67C97B67}"/>
+    <hyperlink ref="A3" r:id="rId4" display="https://www.phoenixframework.org/" xr:uid="{D04CC59A-A3DA-4614-BBD5-844631708636}"/>
+    <hyperlink ref="D1" r:id="rId5" display="https://memcached.org/" xr:uid="{F5B1D6BF-BC8F-4ABA-B744-79361E67826C}"/>
+    <hyperlink ref="E2" r:id="rId6" display="https://bower.io/" xr:uid="{2948DE47-70E7-4485-BE0F-718E84FC4BEE}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.haskell.org/" xr:uid="{EB52E45C-4DEB-4FAC-B85B-C80D6149DAF1}"/>
+    <hyperlink ref="B2" r:id="rId8" display="https://www.scala-lang.org/" xr:uid="{9555B657-7A70-4225-BB07-76E6B412A1CC}"/>
+    <hyperlink ref="B1" r:id="rId9" display="https://www.rabbitmq.com/" xr:uid="{377861E7-D3E8-4DCC-8F1B-A3365FC3412D}"/>
+    <hyperlink ref="E1" r:id="rId10" display="https://nsq.io/" xr:uid="{8DF2D701-1525-4E94-BAFA-C73703EE09EF}"/>
+    <hyperlink ref="C1" r:id="rId11" display="https://redis.io/" xr:uid="{B45D0004-7B99-4C07-9656-619FEE6239C4}"/>
+    <hyperlink ref="D2" r:id="rId12" display="https://yeoman.io/" xr:uid="{85CFFA58-938C-4F81-9E13-16331FD4FFA3}"/>
+    <hyperlink ref="F1" r:id="rId13" display="https://hasura.io/" xr:uid="{B8831BE2-9CF1-418D-BF4D-D3A4A8AC7B70}"/>
+    <hyperlink ref="G1" r:id="rId14" display="https://dgraph.io/" xr:uid="{093C7231-5B52-479D-BC18-FC137E1C52DC}"/>
+    <hyperlink ref="F2" r:id="rId15" display="https://www.graphql.com/" xr:uid="{C5BAE5E2-9F77-407D-8F6D-1A7440D4BEBA}"/>
+    <hyperlink ref="C9" r:id="rId16" display="https://aws.amazon.com/" xr:uid="{7DAE6AD9-E9F6-4FA5-A1F4-218BFFB0DF55}"/>
+    <hyperlink ref="C2" r:id="rId17" display="https://www.rust-lang.org/" xr:uid="{31F1428D-91BE-4E1E-8498-4229EFCDF440}"/>
+    <hyperlink ref="H1" r:id="rId18" display="https://pusher.com/" xr:uid="{7C3CDB02-6919-4E87-A0F9-55BD4F0A908D}"/>
+    <hyperlink ref="I9" r:id="rId19" display="https://build-your-own-x.vercel.app/" xr:uid="{42FD690D-C616-49BD-BA77-2B0CB6A5BDE7}"/>
+    <hyperlink ref="A9" r:id="rId20" display="https://stackoverflow.com/" xr:uid="{16EA2AF4-4439-429E-B542-7607F7BB7819}"/>
+    <hyperlink ref="G6" r:id="rId21" display="https://goalkicker.com/" xr:uid="{8E4DDCA7-D2AF-4E5C-A85D-1B955FBB5290}"/>
+    <hyperlink ref="A6" r:id="rId22" display="https://www.patterns.dev/" xr:uid="{65910F9E-1989-4C3F-A34E-08318B0CA088}"/>
+    <hyperlink ref="F6" r:id="rId23" display="https://hackr.io/" xr:uid="{9685C4B9-B049-4583-ACC0-C0F9FC57BECD}"/>
+    <hyperlink ref="E5" r:id="rId24" display="https://dzone.com/" xr:uid="{D832834C-E87C-42FD-A1EA-39F2C9CFC2FF}"/>
+    <hyperlink ref="F5" r:id="rId25" display="https://www.algoexpert.io/product" xr:uid="{66DDDBDB-7862-4058-98D4-B532BE637B6D}"/>
+    <hyperlink ref="B6" r:id="rId26" display="https://stackshare.io/" xr:uid="{C382B2DA-8A91-4100-9552-C06D6C86D2BE}"/>
+    <hyperlink ref="E6" r:id="rId27" display="https://www.guru99.com/" xr:uid="{D5A8EBD3-D970-464C-981D-54EEFF23151E}"/>
+    <hyperlink ref="C6" r:id="rId28" display="https://hashnode.com/" xr:uid="{1025272B-B4BA-4D1E-A581-45B4AAB2CFC8}"/>
+    <hyperlink ref="A5" r:id="rId29" display="https://dailydevbytes.com/channel/blogs" xr:uid="{4B31A518-B32F-4358-84DF-83004002FAE0}"/>
+    <hyperlink ref="D6" r:id="rId30" display="https://www.indiehackers.com/" xr:uid="{90DF5C9A-C149-482B-BEA4-36D25A553432}"/>
+    <hyperlink ref="B5" r:id="rId31" display="https://app.daily.dev/" xr:uid="{53EA4024-B0C8-4EC4-9CCA-7825BADAD753}"/>
+    <hyperlink ref="B8" r:id="rId32" display="https://simpleprogrammer.com/" xr:uid="{42379C7F-8373-4802-A82C-770783206A0D}"/>
+    <hyperlink ref="G5" r:id="rId33" display="https://www.theodinproject.com/home" xr:uid="{E27B9287-9150-46FA-9F91-2C7C9C149D48}"/>
+    <hyperlink ref="C8" r:id="rId34" display="https://www.pramp.com/" xr:uid="{F1629C56-31E0-4F4B-895F-9DDDC64904A0}"/>
+    <hyperlink ref="A8" r:id="rId35" display="https://www.fullstack.cafe/" xr:uid="{73F59CBC-185E-4BDC-8C3B-FD6145AB643B}"/>
+    <hyperlink ref="D5" r:id="rId36" display="https://www.digitalocean.com/community" xr:uid="{89F33A1B-D934-4495-A2F6-9870A90E17C4}"/>
+    <hyperlink ref="C5" r:id="rId37" display="https://www.geeksforgeeks.org/" xr:uid="{D0A509FC-5465-41FC-BAB9-8F0199EDFD2D}"/>
     <hyperlink ref="I8" location="'3DP'!A1" display="3D Printing" xr:uid="{7C61BBEB-E024-472E-BA9A-009DD42130FE}"/>
     <hyperlink ref="F9" location="Graphics!A1" display="Graphics" xr:uid="{67C2FAD7-DC93-42E0-8064-56B5608F2B23}"/>
     <hyperlink ref="I5" location="'Problem Solving'!A1" display="'Problem Solving'!A1" xr:uid="{BBAA3EA4-E71D-44B4-ABB6-EB7A2503C124}"/>
@@ -2228,13 +3208,297 @@
     <hyperlink ref="I6" location="OPL!A1" display="Other PL" xr:uid="{2A6A60C0-0789-4D98-B1EE-003A10E190EE}"/>
     <hyperlink ref="E9" location="More!A1" display="More" xr:uid="{B8A510D4-2AB8-47AF-98BE-682B31F2FE85}"/>
     <hyperlink ref="D9" location="SEC!A1" display="SEC" xr:uid="{E9831F57-1C65-46CF-B4BD-F47494748784}"/>
+    <hyperlink ref="A10:B10" location="AR!A1" display="Arabic Channels" xr:uid="{79874D7F-FD0B-4CB8-891E-6844EAEE37E4}"/>
+    <hyperlink ref="C10:D10" location="EN!A1" display="English Channels" xr:uid="{62796A48-86DC-438B-BB92-EF7A45DFC16A}"/>
+    <hyperlink ref="E10:F10" location="Other!A1" display="Others Channels" xr:uid="{5C77BAD8-2B8B-4402-B402-BB0205CAEF7E}"/>
+    <hyperlink ref="A1" r:id="rId38" xr:uid="{53DD8C16-5C3E-42FE-9A94-BA5B5F543CC5}"/>
+    <hyperlink ref="G10:H10" location="G!A1" display="G!A1" xr:uid="{3C12F72B-8F42-47E3-8738-A262892C9F0D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBDEB62-6BA5-4C28-B051-2DE4BB52AF06}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="63.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="19.42578125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="69" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="63.75" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="2.25" customHeight="1">
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
+    </row>
+    <row r="4" spans="1:11" ht="70.5" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" ht="70.5" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="1.5" customHeight="1">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="72.75" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" ht="72.75" customHeight="1">
+      <c r="A8" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A9" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" ht="75.75" customHeight="1">
+      <c r="A10" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:K6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{62DD907A-808B-45E7-8012-4447861C3085}"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://overapi.com/nodejs" xr:uid="{4D97E5E6-8AA9-4562-B5E0-86FC08ADB7A2}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{C07ADDBF-B8B8-4BF8-BA82-40C2A31EE589}"/>
+    <hyperlink ref="B1" r:id="rId4" display="NodeJS" xr:uid="{F42E2CA2-40F4-4527-90DD-E34D9F1267E5}"/>
+    <hyperlink ref="C1" r:id="rId5" display="expressjs" xr:uid="{00B0CB18-594B-4208-B2A0-417DCC6D19B1}"/>
+    <hyperlink ref="E1" r:id="rId6" display="reactjs" xr:uid="{DC3CE7E2-5E5D-4961-B060-423817A03278}"/>
+    <hyperlink ref="D1" r:id="rId7" xr:uid="{3950DA7F-E6CA-418E-B766-CF1C2C4DBAFD}"/>
+    <hyperlink ref="F1" r:id="rId8" display="vuejs" xr:uid="{6182F651-3165-4220-B0B1-C15A13F66934}"/>
+    <hyperlink ref="A4" r:id="rId9" xr:uid="{AAF5C530-2BC9-49AC-AE4E-4657BCC678AD}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{6C13F7EB-DB34-422A-B4F6-D433330E9609}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{F938EF98-CEE8-499A-85FB-C3041DB9F688}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{5F52E507-E53C-47CB-8963-6BDADBA55494}"/>
+    <hyperlink ref="I1" r:id="rId13" xr:uid="{9A5BD845-0FA1-4E60-8496-CEA224C40B6C}"/>
+    <hyperlink ref="H1" r:id="rId14" display="nextjs" xr:uid="{65875F65-81FC-4B7D-AC54-64E1FF38FD3D}"/>
+    <hyperlink ref="A2" r:id="rId15" xr:uid="{6B2B96DB-563D-49CB-BC30-F75B9E27B9C3}"/>
+    <hyperlink ref="A8" r:id="rId16" xr:uid="{150DED1C-A969-4160-9DE5-192917A781F3}"/>
+    <hyperlink ref="H4" r:id="rId17" xr:uid="{43520F7B-FBCB-464A-B3E4-3AE0C5B6DF92}"/>
+    <hyperlink ref="B2" r:id="rId18" xr:uid="{A3D799B0-3DF8-4587-A3C2-938F09FF03F7}"/>
+    <hyperlink ref="E2" r:id="rId19" xr:uid="{FACD86EA-AE0D-4696-AC58-0334507A0E75}"/>
+    <hyperlink ref="G1" r:id="rId20" display="TypeSCript" xr:uid="{0CE3E3AE-75A5-4431-B7FF-F92F6905BDA1}"/>
+    <hyperlink ref="I4" r:id="rId21" xr:uid="{EA8FEC1D-5703-4DE1-931A-7602E8EB69CB}"/>
+    <hyperlink ref="F2" r:id="rId22" display="yarn pkg" xr:uid="{8A3673D9-756A-48D2-B8F5-DEA570A57B04}"/>
+    <hyperlink ref="E4" r:id="rId23" xr:uid="{E663D010-F72C-4212-9C31-E35D32B128C2}"/>
+    <hyperlink ref="F4" r:id="rId24" xr:uid="{CC392040-A3B6-48DB-95C1-BD3AF8987137}"/>
+    <hyperlink ref="G2" r:id="rId25" display="npmjs" xr:uid="{4540C1CC-0BEB-4E1E-992C-55DF1C3AEBD0}"/>
+    <hyperlink ref="A5" r:id="rId26" xr:uid="{C58E173B-D947-428B-8278-F28C4A5771C5}"/>
+    <hyperlink ref="B8" r:id="rId27" xr:uid="{A9B4BEE5-0B34-4264-AD14-9133F771B023}"/>
+    <hyperlink ref="B5" r:id="rId28" xr:uid="{BA8A11E5-561F-41ED-B3C9-4EE81D95B074}"/>
+    <hyperlink ref="D2" r:id="rId29" xr:uid="{34ABB2E2-0295-4BEA-A8AB-A5CC87203121}"/>
+    <hyperlink ref="C8" r:id="rId30" xr:uid="{111D519E-B5BF-4E38-A3C9-90C7D221ED61}"/>
+    <hyperlink ref="J10" r:id="rId31" xr:uid="{39A4022B-1EE6-4A47-AE0E-91A8FC98A2AC}"/>
+    <hyperlink ref="A7" r:id="rId32" xr:uid="{865C66EB-4941-43ED-A253-7A5C975DFD80}"/>
+    <hyperlink ref="B7" r:id="rId33" xr:uid="{2A366228-DEEC-465C-BE73-32060BAB71D9}"/>
+    <hyperlink ref="C7" r:id="rId34" xr:uid="{4EC11F02-F6C5-471F-9C62-6AED1818DCC9}"/>
+    <hyperlink ref="D7" r:id="rId35" xr:uid="{3F39B0D6-1957-4624-94FF-B9C5D1655B77}"/>
+    <hyperlink ref="D8" r:id="rId36" xr:uid="{30E64F8F-3483-4849-8B81-58D74EFEC709}"/>
+    <hyperlink ref="E7" r:id="rId37" xr:uid="{2BAFA16E-51D2-4120-AFDF-2C6A0B9CF045}"/>
+    <hyperlink ref="K10" r:id="rId38" xr:uid="{0281E289-2036-48A5-BFCF-9B66709AE023}"/>
+    <hyperlink ref="C2" r:id="rId39" xr:uid="{77263CCE-E0BF-4B03-9B21-36D69D90F336}"/>
+    <hyperlink ref="K1" location="'0'!A1" display="Back" xr:uid="{247772F4-6008-4EF0-9B25-CDEFEC6017DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A403A-76AA-44D6-B5E6-C307F1214717}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2242,74 +3506,74 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="17.140625" style="10"/>
+    <col min="1" max="1" width="34.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="17.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" customHeight="1">
       <c r="B6"/>
     </row>
   </sheetData>
@@ -2323,241 +3587,241 @@
     <hyperlink ref="B1" r:id="rId7" xr:uid="{2EFDC058-F929-4638-8C4B-2CD6ACB67EAF}"/>
     <hyperlink ref="C2" r:id="rId8" xr:uid="{85A265A7-61CB-4BA6-B33D-485504CA7C69}"/>
     <hyperlink ref="D2" r:id="rId9" xr:uid="{4970F63A-6650-4E89-8C7A-6E3C206522FC}"/>
-    <hyperlink ref="E1" location="'P1'!A1" display="Back" xr:uid="{E9156F95-6631-4E64-B94D-4291E0E6F910}"/>
+    <hyperlink ref="E1" location="'0'!A1" display="Back" xr:uid="{352234C4-A9B2-4D1B-AACA-814F27504EFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1A4D8-C98B-42C3-92B7-1FF5A02E82A7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="48" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="K1" s="56" t="s">
+      <c r="F1" s="6"/>
+      <c r="K1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="57"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="L1" s="87"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="G9" s="8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="G10" s="8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="G11" s="8" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="G11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+    <row r="20" spans="1:3">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+    <row r="23" spans="1:3">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
+    <row r="26" spans="1:3">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
+    <row r="30" spans="1:3">
+      <c r="C30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="C31" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
+    <row r="32" spans="1:3">
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2572,88 +3836,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548411AB-5CA4-4A69-A10D-C22AE534FF90}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="39">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" location="Dashboard!A1" display="Back" xr:uid="{13F52EC8-E0E3-4726-8346-6C7470DF027D}"/>
+    <hyperlink ref="G1" location="'0'!A1" display="Back" xr:uid="{55F11D53-B668-41D7-BD45-7858A001F421}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D90D9-B79E-4B38-906B-E7C0FA3A721E}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -2661,229 +3926,231 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="65.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-    </row>
-    <row r="3" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="D2" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2898,13 +4165,14 @@
     <hyperlink ref="C1" r:id="rId7" display="Make Keywords Alert With Google" xr:uid="{291409F9-B366-4A9D-AFAB-16020AEA45EC}"/>
     <hyperlink ref="C3" r:id="rId8" xr:uid="{D1FF7D4C-C3B8-481D-AF0B-41551AAD5A59}"/>
     <hyperlink ref="A4" r:id="rId9" display="Preparing for the Systems" xr:uid="{AABDDB4C-0B25-45E1-B1D9-E99B1DEACFC8}"/>
-    <hyperlink ref="D1" location="'P1'!A1" display="Back" xr:uid="{F9984E97-2FF1-49E3-8C27-D9F73D755B13}"/>
+    <hyperlink ref="D1" location="'0'!A1" display="Back" xr:uid="{2391EB39-9979-4CD0-A0E3-6AAEDED0F11A}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.computerscience.org/careers" xr:uid="{441D6B98-3851-4BB2-8529-6528FDC5C18E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE504DF1-2046-4C24-8338-36D31BC82292}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2912,258 +4180,258 @@
       <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64" style="10" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="64" style="9" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="F1" s="87"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="27" customHeight="1">
+      <c r="A3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1">
+      <c r="A4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1">
+      <c r="A6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" ht="27" customHeight="1">
+      <c r="A7" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1">
+      <c r="A8" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1">
+      <c r="A9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="38" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="38" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="38" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="11" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="21" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="21" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="21" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="21" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:6" ht="27" customHeight="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="27" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3181,7 +4449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A19292-1EE5-456C-BFD4-2A064F7E975B}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -3189,238 +4457,1872 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="69" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.youtube.com/@MohamadMustafa/videos" xr:uid="{CDBB8CD1-F064-4F14-89D3-77D79FF13E00}"/>
-    <hyperlink ref="G1" location="'P1'!A1" display="Back" xr:uid="{EF1966A7-6FBA-4FD7-851B-7086BF97A2E7}"/>
+    <hyperlink ref="G1" location="'0'!A1" display="Back" xr:uid="{5D4D0E01-8CA0-44E5-A9E6-3E4101176231}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B07CA-D3C7-42D7-902A-9BCAB1F5301C}">
-  <dimension ref="A1:E17"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D02ADD-9145-4FCE-9E85-14DBBA1F33C4}">
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A1" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="75"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A2" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A3" s="90"/>
+      <c r="B3" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A4" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A5" s="92"/>
+      <c r="B5" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="92"/>
+      <c r="F5" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="93"/>
+      <c r="H5" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="89"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A6" s="90" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>377</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="J6" s="89"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" s="89"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A8" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>387</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="89"/>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" s="89"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A10" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A11" s="90"/>
+      <c r="B11" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" s="93"/>
+      <c r="F11" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="J11" s="96" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A12" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="J12" s="97"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A13" s="95"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="J13" s="97"/>
+    </row>
+    <row r="14" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A14" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="J14" s="97"/>
+    </row>
+    <row r="15" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A15" s="98"/>
+      <c r="B15" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="52"/>
+      <c r="J15" s="97"/>
+    </row>
+    <row r="16" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A16" s="95" t="s">
+        <v>408</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="J16" s="97"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A17" s="95"/>
+      <c r="B17" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="92"/>
+      <c r="F17" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="93"/>
+      <c r="H17" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A18" s="98" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>415</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A19" s="98"/>
+      <c r="B19" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="101"/>
+      <c r="F19" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A20" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" s="93" t="s">
+        <v>422</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A21" s="102"/>
+      <c r="B21" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A22" s="98" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>427</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A23" s="98"/>
+      <c r="B23" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A24" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A25" s="99"/>
+      <c r="B25" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="93"/>
+      <c r="D25" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="90"/>
+      <c r="H25" s="52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1">
+      <c r="A32" s="50"/>
+    </row>
+    <row r="33" spans="1:1" ht="24" customHeight="1">
+      <c r="A33" s="50"/>
+    </row>
+    <row r="34" spans="1:1" ht="24" customHeight="1">
+      <c r="A34" s="50"/>
+    </row>
+    <row r="35" spans="1:1" ht="24" customHeight="1">
+      <c r="A35" s="50"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="51">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" display="Elzero Web School " xr:uid="{042C9FE7-86ED-42C3-887C-991A5F4F6D35}"/>
+    <hyperlink ref="E18" r:id="rId2" display="Adel Nasim " xr:uid="{87308E2D-5038-4FDB-B741-F05D2175E917}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{59456DD3-842C-4BB4-9420-AEEF9C3778DE}"/>
+    <hyperlink ref="A18" r:id="rId4" xr:uid="{CED1E2D7-8A80-4A39-91AA-6A85626F7AF5}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{7955FE3E-49DD-4825-8F58-E07F6D803AF6}"/>
+    <hyperlink ref="G16" r:id="rId6" display="Adel Sabour" xr:uid="{28F9FE34-C927-4AFF-95BD-41B6D00E2DB8}"/>
+    <hyperlink ref="C14" r:id="rId7" display="Mohammed Reda" xr:uid="{A0DF64ED-6E18-40F0-BE3A-A623BDBE7C85}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{D4D8E4F8-C35F-41C1-971C-B74D02FFD7D9}"/>
+    <hyperlink ref="G6" r:id="rId9" display="Mohamed Radwan" xr:uid="{3C6AD7DD-F10D-4D0B-A5AA-40D543FE1284}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{C4D20A37-B811-48D0-8F12-4B945331DFC9}"/>
+    <hyperlink ref="E14" r:id="rId11" display="codeZone" xr:uid="{803D0DCB-CA2C-4D6E-9EC6-019A235835B0}"/>
+    <hyperlink ref="C6" r:id="rId12" display="Tech Talks in Arabic" xr:uid="{BFEFAD2D-2B5B-4F44-BE92-574B47CAA73B}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{BE87DB9E-FE55-4AE1-A369-7D8D9D3D0D92}"/>
+    <hyperlink ref="E6" r:id="rId14" display="أكاديمية علوم المستقبل" xr:uid="{191CDB48-5C28-43D8-BE67-F7F31B6A96E2}"/>
+    <hyperlink ref="E2" r:id="rId15" display="Power Platform Geeks" xr:uid="{2C86C2E7-8191-401F-8311-A1E9B95423DC}"/>
+    <hyperlink ref="E12:E13" r:id="rId16" display="Unique Coderz Academy" xr:uid="{954502D8-2BB2-4CBE-BB1F-B36DFCE6158E}"/>
+    <hyperlink ref="G8:G9" r:id="rId17" display="أكاديمية إمام" xr:uid="{3A085176-8DFA-4FF1-8D25-E9084D8B3CFC}"/>
+    <hyperlink ref="G18:G19" r:id="rId18" display="احمد صيام" xr:uid="{515338FB-7280-4251-87BE-DAD5216069A7}"/>
+    <hyperlink ref="E10:E11" r:id="rId19" display="Software ArchTalks" xr:uid="{F7F955F0-7859-46BA-B427-E26A26E09528}"/>
+    <hyperlink ref="J4" location="'Programming Talks'!A1" display="Programming Talks" xr:uid="{9C9508C5-896D-4B47-AAD5-B22DB878B58D}"/>
+    <hyperlink ref="A6" r:id="rId20" display="Mohamed Elsherif" xr:uid="{9D5B0049-ED5B-4501-A8E2-AC70B99E4C36}"/>
+    <hyperlink ref="E16" r:id="rId21" display="Mohamed Moshrif" xr:uid="{5C4A5B3A-541F-4D17-B39A-55D413055249}"/>
+    <hyperlink ref="C10" r:id="rId22" display="Ahmed Ali" xr:uid="{D9C365E6-4006-4810-8E05-EEC3C6341604}"/>
+    <hyperlink ref="E4" r:id="rId23" display="Ahmed Elemam" xr:uid="{CFA0D417-52C6-4758-AD80-C47090AF7448}"/>
+    <hyperlink ref="C16" r:id="rId24" xr:uid="{9702F97C-E5E9-4BA0-8F1B-570FF9A78DFB}"/>
+    <hyperlink ref="A20" r:id="rId25" display="Yallacode" xr:uid="{152703B2-7109-4991-A7B6-93FDF5ADC3B9}"/>
+    <hyperlink ref="A2" r:id="rId26" display="Codographia" xr:uid="{6B61F208-7241-4160-9239-17A410F707B7}"/>
+    <hyperlink ref="G24" r:id="rId27" display="Ahmed Rabie" xr:uid="{1B06C340-8268-4A40-8264-F64DCCF24B52}"/>
+    <hyperlink ref="C24" r:id="rId28" display="Mahmoud Hamza" xr:uid="{A6B863E7-00E2-4E4A-9169-9088FC9AE525}"/>
+    <hyperlink ref="A16:A17" r:id="rId29" display="Ahmed Fathi" xr:uid="{46FF9F70-34F4-4EBD-9BE7-55696940332A}"/>
+    <hyperlink ref="G20:G21" r:id="rId30" display="Ramy Hakam" xr:uid="{A3053254-9A90-4EAD-95B7-C264ED23BAE5}"/>
+    <hyperlink ref="E20:E21" r:id="rId31" display="غريب الشيخ" xr:uid="{E9BA8146-63BA-4ECC-9FB5-0C9E37932207}"/>
+    <hyperlink ref="E22" r:id="rId32" display="https://www.youtube.com/user/quantum01010101/videos" xr:uid="{2B7471E3-3DF0-4077-A577-C0241D70B4D2}"/>
+    <hyperlink ref="A24:A25" r:id="rId33" display="سامح دعبس" xr:uid="{B66D40EA-B007-4575-82A9-4312B399FBC6}"/>
+    <hyperlink ref="G22:G23" r:id="rId34" display="Mobarmg" xr:uid="{94C7AC57-206C-4653-B9DF-4B53A105EE5A}"/>
+    <hyperlink ref="E24:E25" r:id="rId35" display="احمد سمير" xr:uid="{1B573493-63BF-4A67-89F1-677A93D81950}"/>
+    <hyperlink ref="C4:C5" r:id="rId36" display="عمرو غنيم" xr:uid="{B7345256-B326-42EC-9F09-67B433748932}"/>
+    <hyperlink ref="C22:C23" r:id="rId37" display="Metwally Labs" xr:uid="{63306BF5-932C-4D10-86ED-384DC954AAE2}"/>
+    <hyperlink ref="A22:A23" r:id="rId38" display="حسين عبدالله" xr:uid="{0E2B3541-D8CF-4394-9666-827680B39611}"/>
+    <hyperlink ref="G14:G15" r:id="rId39" display="Pragma" xr:uid="{8A93E372-E484-40E8-BA43-E26A4F93A63A}"/>
+    <hyperlink ref="E8:E9" r:id="rId40" display="Tecno U" xr:uid="{E85B791B-3946-405D-99AC-B6B659FB7FF9}"/>
+    <hyperlink ref="J1" location="Characters!A1" display="Back" xr:uid="{18C75376-3728-4F79-A9CD-119E6F6AAD65}"/>
+    <hyperlink ref="C2:C3" r:id="rId41" display="Dev Creed" xr:uid="{F56BF516-B532-426A-9FA9-E8F8FFD08D25}"/>
+    <hyperlink ref="C20:C21" r:id="rId42" display="اسلام محمود" xr:uid="{C0F582AD-36E7-4D4A-A73D-067D25548676}"/>
+    <hyperlink ref="J4:J9" location="Other!A1" display="Others" xr:uid="{00B9AB41-5F8F-44FA-8793-36C667A60DB9}"/>
+    <hyperlink ref="J11:K12" location="En!A1" display="English CS" xr:uid="{0782A7C4-0C8A-48BD-9F32-985B572C3605}"/>
+    <hyperlink ref="A4:A5" r:id="rId43" display="Passionate Coders" xr:uid="{E58EAE39-8D52-4052-BAC6-3D66AF8351CB}"/>
+    <hyperlink ref="G4:G5" r:id="rId44" display="Mostafa Ibrahim" xr:uid="{B60FE087-C7FB-4C06-88B7-94A81752B286}"/>
+    <hyperlink ref="A10:A11" r:id="rId45" display="د احمد سالم" xr:uid="{E0B87021-DDDD-487F-B690-B802ACF2250C}"/>
+    <hyperlink ref="G2:G3" r:id="rId46" display="محمود سمير" xr:uid="{6DEB8276-3DB7-47CE-83EE-03A961CF411F}"/>
+    <hyperlink ref="J1:K1" location="'0'!A1" display="Back" xr:uid="{75FDD94A-355C-47BD-A767-8C4159446FCB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6747FC47-3FB8-40D7-A496-9C2AE85D1C66}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="33.28515625" defaultRowHeight="32.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="62" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="16384" width="33.28515625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>312</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A2" s="59"/>
       <c r="B2" s="59" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>318</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6" ht="32.25" customHeight="1">
       <c r="A4" s="59" t="s">
-        <v>314</v>
+        <v>443</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="59"/>
+        <v>445</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>446</v>
+      </c>
       <c r="E4" s="59"/>
-    </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>320</v>
-      </c>
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59"/>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1">
       <c r="A6" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+        <v>447</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>450</v>
+      </c>
       <c r="E6" s="59"/>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>322</v>
-      </c>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A7" s="59"/>
       <c r="B7" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+        <v>451</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>453</v>
+      </c>
       <c r="E7" s="59"/>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59" t="s">
-        <v>334</v>
-      </c>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
-    </row>
-    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>335</v>
-      </c>
+      <c r="F8" s="59"/>
+    </row>
+    <row r="9" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
-    </row>
-    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>324</v>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A10" s="103" t="s">
+        <v>455</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
-    </row>
-    <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" s="59"/>
+      <c r="F10" s="59"/>
+    </row>
+    <row r="11" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="59" t="s">
+        <v>457</v>
+      </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="1:6" ht="32.25" customHeight="1">
       <c r="A12" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>337</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="B12" s="59"/>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
-    </row>
-    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="1:6" ht="32.25" customHeight="1">
       <c r="A13" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="59"/>
+        <v>459</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59" t="s">
+        <v>460</v>
+      </c>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6" ht="32.25" customHeight="1">
       <c r="A14" s="59" t="s">
-        <v>329</v>
+        <v>461</v>
       </c>
       <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+      <c r="C14" s="59" t="s">
+        <v>462</v>
+      </c>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="1:6" ht="32.25" customHeight="1">
       <c r="A15" s="59"/>
-      <c r="B15" s="59" t="s">
-        <v>339</v>
-      </c>
+      <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A16" s="59" t="s">
+        <v>463</v>
+      </c>
       <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
+      <c r="C16" s="59" t="s">
+        <v>464</v>
+      </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
-    </row>
-    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="1:6" ht="32.25" customHeight="1">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+    </row>
+    <row r="18" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A18" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+    </row>
+    <row r="19" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A19" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.youtube.com/@AaronJack/videos" xr:uid="{CDCE6ADC-562F-4391-B414-2FA14C5C4F19}"/>
+    <hyperlink ref="C1" r:id="rId2" display="https://www.youtube.com/c/TraversyMedia/videos" xr:uid="{552FBA06-C19D-44FC-9836-8FA87345C50E}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://www.youtube.com/c/ProgramWithErik/videos" xr:uid="{ED295BFF-A92D-4304-8B83-D034797A270D}"/>
+    <hyperlink ref="C13" r:id="rId4" display="https://www.youtube.com/c/Freecodecamp/videos" xr:uid="{57F022EF-9778-4279-826F-5E7FCE538B58}"/>
+    <hyperlink ref="D1" r:id="rId5" display="https://www.youtube.com/c/WebDevSimplified/playlists" xr:uid="{40E103EF-DBAA-4A7E-ABE3-D98871D6ACB8}"/>
+    <hyperlink ref="E1" r:id="rId6" display="https://www.youtube.com/c/CodingAddict/videos" xr:uid="{CED34249-9AC9-48CB-9DC2-0E0678177168}"/>
+    <hyperlink ref="A1" r:id="rId7" display="https://www.youtube.com/@javascriptmastery/videos" xr:uid="{53FFEB8A-75BD-451F-A4F4-507269A4285E}"/>
+    <hyperlink ref="B2" r:id="rId8" display="https://www.youtube.com/c/drehimself/playlists" xr:uid="{1D2D5D31-7115-4F5D-8AA9-B40DEFAA3A8D}"/>
+    <hyperlink ref="C2" r:id="rId9" display="https://www.youtube.com/c/programmingwithmosh/videos" xr:uid="{DA2124A6-2D87-406B-B1A5-16C68EC129E3}"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://www.youtube.com/c/TheCodingTrain/videos" xr:uid="{0ACD74AC-5589-477B-AD63-04E370FB13DD}"/>
+    <hyperlink ref="C14" r:id="rId11" display="https://www.youtube.com/c/Csharp-video-tutorialsBlogspot/videos" xr:uid="{AA695EF5-C3F1-4738-B6F9-7CB3EC8BD31F}"/>
+    <hyperlink ref="D2" r:id="rId12" display="https://www.youtube.com/c/IBMTechnology/videos" xr:uid="{F6D2592E-B52E-47F7-96A0-FDBD9C647082}"/>
+    <hyperlink ref="E2" r:id="rId13" display="https://www.youtube.com/user/thenewboston/videos" xr:uid="{B210EA99-A466-46DC-BC9C-97369B26DE6A}"/>
+    <hyperlink ref="A4" r:id="rId14" display="https://www.youtube.com/c/Bedimcode/videos" xr:uid="{591E0A73-A608-4161-B3E0-5F2B2627E565}"/>
+    <hyperlink ref="B4" r:id="rId15" display="https://www.youtube.com/c/Mdbootstrap/videos" xr:uid="{01B9D8D4-D246-4F20-84E5-F38611590B18}"/>
+    <hyperlink ref="C4" r:id="rId16" display="https://www.youtube.com/c/Divinector/videos" xr:uid="{66B7E1EC-032D-43AD-B9DD-5045D6B1DCD3}"/>
+    <hyperlink ref="A16" r:id="rId17" display="https://www.youtube.com/c/CodingNepal/videos" xr:uid="{553C8AA2-4DFB-4B9C-9F37-BD32AB07B918}"/>
+    <hyperlink ref="C16" r:id="rId18" display="https://www.youtube.com/c/codewithsadee/featured" xr:uid="{BF2D7DBD-FD18-40B5-8A20-82BC90A7B55D}"/>
+    <hyperlink ref="D4" r:id="rId19" display="https://www.youtube.com/c/MrWebDesignerAnas/videos" xr:uid="{50D4C54E-4793-4E52-9F1E-5EF192B94471}"/>
+    <hyperlink ref="A6" r:id="rId20" display="https://www.youtube.com/c/HusseinNasser-software-engineering/videos" xr:uid="{09E63D11-BDE5-45BA-A866-A53863B7B7E6}"/>
+    <hyperlink ref="B6" r:id="rId21" display="https://www.youtube.com/c/NullByteWHT/videos" xr:uid="{82144690-AC2E-4DC1-90C0-30DCB15A06EB}"/>
+    <hyperlink ref="C6" r:id="rId22" display="https://www.youtube.com/@glich.stream/videos" xr:uid="{80A915AB-E7C9-4A50-9274-10BDA5340CCB}"/>
+    <hyperlink ref="A18" r:id="rId23" display="https://www.youtube.com/c/CodeMonkeyUnity/videos" xr:uid="{D1DB27DD-0E02-4397-B829-2269CB6B0D51}"/>
+    <hyperlink ref="C18" r:id="rId24" display="https://www.youtube.com/c/derekbanas/videos" xr:uid="{06C2E9BD-6EF7-489D-84FC-007C534CA3E0}"/>
+    <hyperlink ref="D6" r:id="rId25" display="https://www.youtube.com/@GeeksLesson/videos" xr:uid="{29B4CAFA-9B7C-4F0B-9124-C231DE35F525}"/>
+    <hyperlink ref="A8" r:id="rId26" display="https://www.youtube.com/@EasyTutorialsVideo/videos" xr:uid="{DE765ACE-49E9-4E9F-99D5-33ED6D6B3248}"/>
+    <hyperlink ref="B7" r:id="rId27" display="https://www.youtube.com/@Devdojo/videos" xr:uid="{5DA4350C-0804-4502-A352-BAEA8ACC7981}"/>
+    <hyperlink ref="C7" r:id="rId28" display="https://www.youtube.com/@gennadykorotkevich8583/videos" xr:uid="{2061811F-1BFB-4014-9A8C-2E418A73504C}"/>
+    <hyperlink ref="A19" r:id="rId29" display="https://www.youtube.com/@NetNinja/videos" xr:uid="{FCC10538-7057-4FDC-A419-D1F674F39ECE}"/>
+    <hyperlink ref="C19" r:id="rId30" display="https://www.youtube.com/@nesoacademy/playlists" xr:uid="{B3B96C55-5C5F-4886-AA60-36B4FED83589}"/>
+    <hyperlink ref="D7" r:id="rId31" display="https://www.youtube.com/@Telmosampaio/videos" xr:uid="{4D832DDC-338C-4401-88B5-BB94EB2D9EFA}"/>
+    <hyperlink ref="A12" r:id="rId32" display="https://www.youtube.com/@academind/videos" xr:uid="{B68F0714-2D2A-4302-9AD7-9417AAD3C496}"/>
+    <hyperlink ref="F1" location="Characters!A1" display="Back" xr:uid="{9D88FBF5-8E43-41F0-BA29-388C3FBD7CD2}"/>
+    <hyperlink ref="F1:F2" location="'0'!A1" display="Back" xr:uid="{5E4B1D54-0135-4972-AECE-DBBC3700A7D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A02736-2689-4A6E-B25C-D76D10AF1177}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="23.5703125" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="106" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="I1" s="72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="106"/>
+      <c r="B2" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="105"/>
+      <c r="F2" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="107"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="73"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="104" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" s="61"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="104"/>
+      <c r="B4" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" s="104"/>
+      <c r="F4" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="105"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="104" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>485</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="104"/>
+      <c r="B6" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="F6" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="105"/>
+      <c r="H6" s="61" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.25">
+      <c r="A7" s="110" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" ht="23.25">
+      <c r="A8" s="110"/>
+      <c r="B8" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25">
+      <c r="A9" s="108" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+    </row>
+    <row r="10" spans="1:9" ht="23.25">
+      <c r="A10" s="110" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>495</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23.25">
+      <c r="A11" s="110"/>
+      <c r="B11" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="F11" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="110"/>
+      <c r="H11" s="64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23.25">
+      <c r="A12" s="108" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="E13" s="109" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="109"/>
+      <c r="B14" s="62" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="62" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" s="111"/>
+      <c r="H14" s="65" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23.25">
+      <c r="A15" s="111" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="109" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="91" t="s">
+        <v>506</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="62" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" s="112"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="54" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="23.25">
+      <c r="A17" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="113"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25">
+      <c r="A18" s="91"/>
+      <c r="B18" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.25">
+      <c r="A19" s="108" t="s">
+        <v>509</v>
+      </c>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="107" t="s">
+        <v>510</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>512</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>514</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="107"/>
+      <c r="B21" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="E21" s="107"/>
+      <c r="F21" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="G21" s="107"/>
+      <c r="H21" s="62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="107" t="s">
+        <v>516</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>517</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="E22" s="109"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="62"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="107"/>
+      <c r="B23" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="109"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="62"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25">
+      <c r="A24" s="108" t="s">
+        <v>518</v>
+      </c>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25">
+      <c r="A25" s="91" t="s">
+        <v>519</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25">
+      <c r="A26" s="91"/>
+      <c r="B26" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" display="Troubleshooter Youssef Shawky" xr:uid="{433B5A8B-B0D5-4D3D-AFE0-5B1CF85B6F86}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{6AB742FB-16E7-468F-A229-5355F89A2FF8}"/>
+    <hyperlink ref="C1" r:id="rId3" display="Mohamed Ebrahim Saad" xr:uid="{AA31F398-F28F-4D80-B9CD-173873E7BB95}"/>
+    <hyperlink ref="E1" r:id="rId4" display="Ahmed Etefy أحمد عطيفي" xr:uid="{A6904940-7ECA-4108-A724-E5821FB25E0D}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{B990FC83-DE00-4E00-99EB-0B159B93FFE7}"/>
+    <hyperlink ref="C3:C4" r:id="rId6" display="Eslam Khder" xr:uid="{91AD4F1D-DF34-4F0B-9088-5BA9C08B1027}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{71A59E60-8CA1-47E2-AE89-77B4F26F52CF}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{A9E12E3F-BAB0-455E-A0CD-65627B1B0405}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{527770B5-405B-44C7-8542-0841810042C4}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{DDD3F70D-2DDB-40DD-99E0-DE6958D511A7}"/>
+    <hyperlink ref="E5" r:id="rId11" xr:uid="{7876CC36-0C8C-4E9A-B128-E1D77831E004}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.youtube.com/channel/UCb2aFMZk4tlxotB14sNBQXA/videos" xr:uid="{23581D2E-ABC4-4EB3-A3C0-E68CD1C78EE5}"/>
+    <hyperlink ref="C13" r:id="rId13" display="https://www.youtube.com/c/HeshamAsem/videos" xr:uid="{07A151F3-C735-40DC-88BB-CF09E0986DEC}"/>
+    <hyperlink ref="E13" r:id="rId14" display="https://www.youtube.com/c/DeenaGergis/videos" xr:uid="{D30DD2E9-AE52-4025-B47C-84C8A281780D}"/>
+    <hyperlink ref="G13" r:id="rId15" display="https://www.youtube.com/@GarageEducation/playlists" xr:uid="{C8EEC7D4-5B5C-4B00-918A-F4C9A0FFBE51}"/>
+    <hyperlink ref="A15" r:id="rId16" display="https://www.youtube.com/channel/UCrhMuVw3B1FaEb1GKl3aYZw/videos" xr:uid="{8E6FB702-162B-4DDA-8521-9CBD87E18193}"/>
+    <hyperlink ref="C15" r:id="rId17" display="https://www.youtube.com/@ElgoharyAI/playlists" xr:uid="{2AD9ED64-835C-4939-B59D-6ACF35A2B7A3}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.youtube.com/user/Zigoo0/videos" xr:uid="{5E5C29CE-ECC5-4F93-BFC3-0767D9112880}"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://www.youtube.com/c/NakerahNetwork/videos" xr:uid="{B4CBD117-12A1-4252-A799-E3490F51BDDB}"/>
+    <hyperlink ref="E20" r:id="rId20" display="https://www.youtube.com/c/HassanSaad0X/videos" xr:uid="{D2B6AB68-86DB-40A1-8438-5B2EBEDC2A56}"/>
+    <hyperlink ref="G20" r:id="rId21" display="https://www.youtube.com/c/EGYPTNETRIDERS/videos" xr:uid="{64C82FAA-D176-4A66-A0D7-61324AD5EFE0}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://www.youtube.com/channel/UCnSnI7qnX7CFzHSHYYwDKsw/videos" xr:uid="{5570092C-F4A8-4C6F-B227-B793D3C1165B}"/>
+    <hyperlink ref="C22" r:id="rId23" display="https://www.youtube.com/user/abdallahelsokary/videos" xr:uid="{3B16B5AD-D92E-4C5C-9CEC-A574C1C806CC}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{D54CEC86-C085-4959-9F69-BB715CF765BB}"/>
+    <hyperlink ref="A10" r:id="rId25" xr:uid="{3922C1BD-D825-4117-B647-EA21B7C8DA87}"/>
+    <hyperlink ref="C10" r:id="rId26" xr:uid="{1A620469-B106-4D25-840A-6704C66E7347}"/>
+    <hyperlink ref="E10" r:id="rId27" display="Abdelrahman Eid" xr:uid="{BCB9FA58-8D60-4E62-B45C-6791602B8161}"/>
+    <hyperlink ref="A25" r:id="rId28" display="نظام Nezam" xr:uid="{F4986893-6147-49EB-9F19-5A7603415A6B}"/>
+    <hyperlink ref="C25" r:id="rId29" display="Software Quality Academy" xr:uid="{5879C0A0-84B5-4E82-9622-30A403AC941C}"/>
+    <hyperlink ref="G15" r:id="rId30" xr:uid="{BFA8DE3F-1DA7-4BC1-AB86-8EE065E82D42}"/>
+    <hyperlink ref="G10" r:id="rId31" display="Ahmed Emam" xr:uid="{1FD4D4D1-5168-4B31-9C35-1575D0B5A573}"/>
+    <hyperlink ref="A17:A18" r:id="rId32" display="Ahmad Bazzi " xr:uid="{C2A5C659-D7D7-4EDB-A370-831F5190395F}"/>
+    <hyperlink ref="A7" r:id="rId33" xr:uid="{23B492EE-E7EE-4E9D-A9E5-BB8266EB28D5}"/>
+    <hyperlink ref="I1" location="Characters!A1" display="Back" xr:uid="{91B1256D-AFDB-4A19-B413-8BC5AF72A480}"/>
+    <hyperlink ref="I1:I2" location="'0'!A1" display="Back" xr:uid="{53C29AB8-EAE3-4D04-A069-4DDF53264BA6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6711AF-D3F2-49FD-BEFC-FA61E67402BC}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="115" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="116" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="117"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="115" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30">
+      <c r="A8" s="116" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="117"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="115" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="115" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/groups/FlutterArabic/" xr:uid="{47A2424B-4BD0-4996-BDD7-6B21E4AC7C30}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.facebook.com/groups/aravel/" xr:uid="{A196F792-37E4-4608-87CA-6CA7A6B8A5DB}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.facebook.com/groups/laravelcommunitygroup/" xr:uid="{E412E2D4-A3C4-46A8-88C5-4033C68536A3}"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.facebook.com/groups/1509753565994833/" xr:uid="{B4CA67D7-3439-447F-B9E3-B1B6F5650B6E}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.facebook.com/groups/laravelawy/" xr:uid="{3E203E1A-9A7C-4F32-8BFD-63777E31DFA4}"/>
+    <hyperlink ref="A13" r:id="rId6" display="https://www.facebook.com/groups/2063046067339407/" xr:uid="{7B067F01-E64A-4E7B-9ED3-3A22BB9E95DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF493D-6533-45B8-B1A9-170AE766D772}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B07CA-D3C7-42D7-902A-9BCAB1F5301C}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="62" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A4" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A5" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A12" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A13" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A14" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F1" location="Characters!A1" display="Back" xr:uid="{CB9D591C-0566-4239-B60D-49D0F9543461}"/>
+    <hyperlink ref="F1:F2" location="'0'!A1" display="Back" xr:uid="{74D97B43-7F42-4B7E-A198-98F5131DC419}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF493D-6533-45B8-B1A9-170AE766D772}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="33" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -3430,247 +6332,249 @@
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:7" ht="42" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="45" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="G1" s="67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="45" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A3" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="45" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="45" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:7" ht="54" customHeight="1">
+      <c r="A5" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="45" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" ht="33" customHeight="1">
+      <c r="A6" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="60"/>
-    </row>
-    <row r="7" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-    </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1">
+      <c r="A8" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="F8" s="60"/>
-    </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" ht="33" customHeight="1">
+      <c r="A10" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="45" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+    <row r="11" spans="1:7" ht="33" customHeight="1">
+      <c r="A11" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-    </row>
-    <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-    </row>
-    <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="33" customHeight="1">
+      <c r="A13" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-    </row>
-    <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="33" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" ht="33" customHeight="1">
+      <c r="A15" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" ht="33" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3730,264 +6634,269 @@
     <hyperlink ref="B15" r:id="rId54" display="https://www.facebook.com/groups/392791044077830/" xr:uid="{871066E6-A405-4D91-B74E-895AFF250CBC}"/>
     <hyperlink ref="C15" r:id="rId55" display="https://www.youtube.com/c/DrMohamedShaltout" xr:uid="{8D629B15-DFFF-4DCC-BA70-B0046BC7CD3E}"/>
     <hyperlink ref="D15" r:id="rId56" display="https://goart.fotor.com/nft" xr:uid="{339A5056-9172-44C7-8234-EE4D60B0028B}"/>
-    <hyperlink ref="F13" location="'P1'!A1" display="Back" xr:uid="{D72280C1-AB92-4E28-AE64-DB70CF46970A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8F137-C31D-4F40-A0FE-675087E187CE}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-    </row>
-    <row r="4" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-    </row>
-    <row r="5" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
-    <hyperlink ref="A3" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
-    <hyperlink ref="A2" r:id="rId1" display="https://en.cppreference.com/" xr:uid="{3C0FEF83-6094-4FBF-A0D5-BE9315C53148}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{F00FCEBD-DDAD-4854-B58C-7E1237732466}"/>
-    <hyperlink ref="C1" location="'P1'!A1" display="Back" xr:uid="{16A04D7C-B178-4FED-AE58-899951C1E08E}"/>
+    <hyperlink ref="G1" location="Characters!A1" display="Back" xr:uid="{940003DD-4273-4C3A-A1DD-52FC2E9C9FED}"/>
+    <hyperlink ref="G1:G2" location="'0'!A1" display="Back" xr:uid="{1FCEED60-A3A1-4D96-93CB-D5D6E92C6E2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A8F137-C31D-4F40-A0FE-675087E187CE}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="53.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="53.25" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="1:4" ht="53.25" customHeight="1">
+      <c r="A2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" ht="53.25" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="53.25" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" ht="53.25" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="PHP!A1" display="PHP" xr:uid="{44AF98E1-2BA9-40A1-BD82-41C9458E11F5}"/>
+    <hyperlink ref="A3" location="Py!A1" display="Python" xr:uid="{7A9A1D61-9968-4703-AC9A-7723553AE43A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://en.cppreference.com/" xr:uid="{3C0FEF83-6094-4FBF-A0D5-BE9315C53148}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{F00FCEBD-DDAD-4854-B58C-7E1237732466}"/>
+    <hyperlink ref="C1" location="Characters!A1" display="Back" xr:uid="{C1C91826-21FC-45C9-95B4-80FE98A6E23B}"/>
+    <hyperlink ref="C1:D1" location="'0'!A1" display="Back" xr:uid="{EA90A8D2-5A3F-45D0-B932-1006F3F12E23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C88D73-EAF2-466A-B8F2-2CB06EEB36D8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="81.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="25.28515625" style="28"/>
+    <col min="1" max="16384" width="25.28515625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="42" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+    </row>
+    <row r="5" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A6" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+    </row>
+    <row r="8" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="9" spans="1:8" ht="9.75" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A10" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="23"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+    </row>
+    <row r="11" spans="1:8" ht="81.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="81.75" customHeight="1">
+      <c r="E12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4003,126 +6912,136 @@
     <hyperlink ref="F1" r:id="rId5" display="https://www.creative-tim.com/templates/flutter" xr:uid="{2911586A-4800-4D34-AF2A-196754F8EF76}"/>
     <hyperlink ref="G1" r:id="rId6" display="https://icomoon.io/" xr:uid="{3A8C4CC8-0C66-4E99-A235-37A1F05C0762}"/>
     <hyperlink ref="H1" r:id="rId7" display="https://fontawesome.com/" xr:uid="{8001446B-0F93-4A57-8F51-39F76B014F68}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
-    <hyperlink ref="B2" r:id="rId9" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
-    <hyperlink ref="C2" r:id="rId10" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
-    <hyperlink ref="D2" r:id="rId11" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
-    <hyperlink ref="E2" r:id="rId12" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
-    <hyperlink ref="F2" r:id="rId13" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
-    <hyperlink ref="G2" r:id="rId14" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
-    <hyperlink ref="H2" r:id="rId15" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
-    <hyperlink ref="E3" r:id="rId16" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
-    <hyperlink ref="A3" r:id="rId17" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
-    <hyperlink ref="B3" r:id="rId18" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
-    <hyperlink ref="C3" r:id="rId19" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
-    <hyperlink ref="D3" r:id="rId20" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
-    <hyperlink ref="B5" r:id="rId21" xr:uid="{B3848B6B-EF81-4123-9D54-3F216A9403C4}"/>
-    <hyperlink ref="A5" r:id="rId22" xr:uid="{04FF4B12-5F4C-4C47-89BB-24A1E5A3D2C2}"/>
-    <hyperlink ref="C5" r:id="rId23" xr:uid="{973FE87C-1687-47C2-BBFE-76106B70CE04}"/>
-    <hyperlink ref="D5" r:id="rId24" xr:uid="{5C6F3937-E48C-4A21-85F6-08E8CBC9B580}"/>
-    <hyperlink ref="E5" r:id="rId25" xr:uid="{F0C7148A-AA1A-4B8C-8320-1C324F0F8FBA}"/>
-    <hyperlink ref="C6" r:id="rId26" xr:uid="{75AAAD14-2C79-4A37-8452-DB02C8AEED3D}"/>
-    <hyperlink ref="F5" r:id="rId27" xr:uid="{08560A5A-09EB-4C21-95EC-D034AA0D8994}"/>
-    <hyperlink ref="G5" r:id="rId28" xr:uid="{048A5D56-4743-4517-A315-E9347D14BBDC}"/>
-    <hyperlink ref="A6" r:id="rId29" xr:uid="{1A36D469-174D-43BD-8BBF-2B910EFF0A5B}"/>
-    <hyperlink ref="A8" r:id="rId30" xr:uid="{1F27A86A-4F6B-42DF-A7B1-3747D63702DA}"/>
-    <hyperlink ref="B8" r:id="rId31" xr:uid="{836F1F53-5186-4189-99EC-723DBA51655D}"/>
-    <hyperlink ref="C8" r:id="rId32" xr:uid="{F3FD3167-8618-4E2D-8092-39F66DC3B051}"/>
-    <hyperlink ref="D8" r:id="rId33" xr:uid="{7E44949E-94C5-4F56-A796-AB39F7CF7742}"/>
-    <hyperlink ref="A10:D10" r:id="rId34" display="Does bootstrap have builtin padding and margin classes?" xr:uid="{687F7D5A-5D50-4B59-83EA-D654F9326B93}"/>
-    <hyperlink ref="A1" location="'P1'!A1" display="Back" xr:uid="{3DD3BC3D-9236-4BBC-A3F3-010E0E6638AC}"/>
-    <hyperlink ref="B6" r:id="rId35" xr:uid="{48D8D0B5-A460-4992-B1EB-7D4BF959A80B}"/>
-    <hyperlink ref="D6" r:id="rId36" xr:uid="{35735AE5-DD02-468D-8B87-14B7AD7BC0EC}"/>
-    <hyperlink ref="H8" r:id="rId37" xr:uid="{C963CC36-DE09-4AA5-B038-646796906F21}"/>
-    <hyperlink ref="H5" r:id="rId38" xr:uid="{E7842B01-26E8-4DAA-9371-DB04ABBCDBFD}"/>
+    <hyperlink ref="B2" r:id="rId8" display="https://sass-lang.com/" xr:uid="{6EE1D0F2-A5C9-4767-8B70-ABFA413F8BA8}"/>
+    <hyperlink ref="C2" r:id="rId9" display="https://www.frontendmentor.io/" xr:uid="{B60D4251-B1EB-4FEB-8953-663DCC50F9A7}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://themeforest.net/" xr:uid="{9D070C9B-A21C-4100-A927-0B5D92E135EC}"/>
+    <hyperlink ref="E2" r:id="rId11" display="https://tailwindcss.com/docs" xr:uid="{77277A14-B688-4C98-87D1-04E090A5A61C}"/>
+    <hyperlink ref="F2" r:id="rId12" display="https://mdbootstrap.com/" xr:uid="{F9DED750-2E37-4BC7-9A31-965C8F7A075F}"/>
+    <hyperlink ref="G2" r:id="rId13" display="https://getbootstrap.com/" xr:uid="{9BAB0D38-E547-47C3-9AA9-6A5648663712}"/>
+    <hyperlink ref="H2" r:id="rId14" display="https://proto.io/" xr:uid="{A6CF53DC-1868-4E98-8E4C-DA132BD085D5}"/>
+    <hyperlink ref="E3" r:id="rId15" display="https://bulma.io/" xr:uid="{85A74973-A001-42DD-B946-16F74AA5A2A6}"/>
+    <hyperlink ref="A3" r:id="rId16" display="https://search.google.com/test/mobile-friendly" xr:uid="{2B5991D7-98EE-4C5F-8205-F56BFC40E559}"/>
+    <hyperlink ref="B3" r:id="rId17" display="https://www.logomaker.com/" xr:uid="{7F46DEA1-1F48-4EE9-97A6-0BE55F8D409C}"/>
+    <hyperlink ref="C3" r:id="rId18" display="https://www.sketch.com/" xr:uid="{B06AD9DD-AEB6-4741-8392-AF45AF4A6A64}"/>
+    <hyperlink ref="D3" r:id="rId19" display="https://greensock.com/" xr:uid="{0774AAC7-BA9C-4316-94F4-8100D8CFCA0A}"/>
+    <hyperlink ref="B5" r:id="rId20" xr:uid="{B3848B6B-EF81-4123-9D54-3F216A9403C4}"/>
+    <hyperlink ref="A5" r:id="rId21" xr:uid="{04FF4B12-5F4C-4C47-89BB-24A1E5A3D2C2}"/>
+    <hyperlink ref="C5" r:id="rId22" xr:uid="{973FE87C-1687-47C2-BBFE-76106B70CE04}"/>
+    <hyperlink ref="D5" r:id="rId23" xr:uid="{5C6F3937-E48C-4A21-85F6-08E8CBC9B580}"/>
+    <hyperlink ref="E5" r:id="rId24" xr:uid="{F0C7148A-AA1A-4B8C-8320-1C324F0F8FBA}"/>
+    <hyperlink ref="C6" r:id="rId25" xr:uid="{75AAAD14-2C79-4A37-8452-DB02C8AEED3D}"/>
+    <hyperlink ref="F5" r:id="rId26" xr:uid="{08560A5A-09EB-4C21-95EC-D034AA0D8994}"/>
+    <hyperlink ref="G5" r:id="rId27" xr:uid="{048A5D56-4743-4517-A315-E9347D14BBDC}"/>
+    <hyperlink ref="A6" r:id="rId28" xr:uid="{1A36D469-174D-43BD-8BBF-2B910EFF0A5B}"/>
+    <hyperlink ref="A8" r:id="rId29" xr:uid="{1F27A86A-4F6B-42DF-A7B1-3747D63702DA}"/>
+    <hyperlink ref="B8" r:id="rId30" xr:uid="{836F1F53-5186-4189-99EC-723DBA51655D}"/>
+    <hyperlink ref="C8" r:id="rId31" xr:uid="{F3FD3167-8618-4E2D-8092-39F66DC3B051}"/>
+    <hyperlink ref="D8" r:id="rId32" xr:uid="{7E44949E-94C5-4F56-A796-AB39F7CF7742}"/>
+    <hyperlink ref="A10:D10" r:id="rId33" display="Does bootstrap have builtin padding and margin classes?" xr:uid="{687F7D5A-5D50-4B59-83EA-D654F9326B93}"/>
+    <hyperlink ref="B6" r:id="rId34" xr:uid="{48D8D0B5-A460-4992-B1EB-7D4BF959A80B}"/>
+    <hyperlink ref="D6" r:id="rId35" xr:uid="{35735AE5-DD02-468D-8B87-14B7AD7BC0EC}"/>
+    <hyperlink ref="H8" r:id="rId36" xr:uid="{C963CC36-DE09-4AA5-B038-646796906F21}"/>
+    <hyperlink ref="H5" r:id="rId37" xr:uid="{E7842B01-26E8-4DAA-9371-DB04ABBCDBFD}"/>
     <hyperlink ref="H3" location="'CSS READY'!A1" display="CSS Ready Tools" xr:uid="{215191BA-82B8-4988-910F-C36A557ED65C}"/>
+    <hyperlink ref="A2" r:id="rId38" display="https://www.figma.com/" xr:uid="{90F3821A-0629-4665-A7CC-B08CA9824852}"/>
+    <hyperlink ref="A1" location="'0'!A1" display="Back" xr:uid="{BA224A28-D46A-4B8D-B216-E0F0A7DF0AAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41D6942-5B93-45F4-B7D5-69DDE0C76AF4}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="45" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>347</v>
       </c>
       <c r="E1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:5" ht="45" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:5" ht="45" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" customHeight="1">
+      <c r="A8" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="75"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="hype4.academy" xr:uid="{40D2F47E-05CD-43A4-87BF-92E44F42F5EF}"/>
     <hyperlink ref="C1" r:id="rId2" display="https://animate.style/" xr:uid="{7572769C-AA1A-490B-8620-AAC195AE1218}"/>
-    <hyperlink ref="A1" location="'UI-UX'!A1" display="Back" xr:uid="{0A621C20-A287-4F61-A93C-89AE3624012D}"/>
     <hyperlink ref="D1" r:id="rId3" location="EveningNight" display="https://uigradients.com/ - EveningNight" xr:uid="{24A14883-F186-4435-9FE3-E4D532A88C33}"/>
     <hyperlink ref="B2" r:id="rId4" display="cssgradient" xr:uid="{012F31ED-CECB-418B-A0B3-BBC299D62855}"/>
     <hyperlink ref="C2" r:id="rId5" xr:uid="{BB0E2F21-F154-4373-AFAE-4A0B4E811F3A}"/>
+    <hyperlink ref="A8" location="Characters!A1" display="Back" xr:uid="{D340D753-875C-4B25-A877-AE75A581A516}"/>
+    <hyperlink ref="A8:B8" location="'0'!A1" display="Back" xr:uid="{2B3DA443-1A3F-4B94-AEBF-345A50CD3B17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE076C-BE8B-4E45-A6A9-3829C5090764}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4130,58 +7049,58 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" ht="65.25" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:9" ht="65.25" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4198,248 +7117,248 @@
     <hyperlink ref="D2" r:id="rId11" display="https://coderbyte.com/" xr:uid="{533F8354-B98C-4ACB-B9B2-69E26C71D4D1}"/>
     <hyperlink ref="E2" r:id="rId12" display="https://icpc.global/" xr:uid="{5D042A5F-D90E-441E-9735-04987766B64A}"/>
     <hyperlink ref="F2" r:id="rId13" display="https://www.kaggle.com/" xr:uid="{860FD63F-42BF-46F0-9E7C-386F95ED55BE}"/>
-    <hyperlink ref="I1" location="'P1'!A1" display="Back" xr:uid="{7A53AB77-4778-414C-A283-C943B4EDC1A7}"/>
+    <hyperlink ref="I1" location="'0'!A1" display="Back" xr:uid="{C8646A69-EC6D-442C-B440-D782A5689ADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0870F34A-33AD-43D9-9529-E493C8468E83}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="48" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="31.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="48" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="48" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="48" customHeight="1">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="48" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="48" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="48" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="48" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="48" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="48" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="48" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="48" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="48" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="48" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="48" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="48" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4455,7 +7374,6 @@
     <hyperlink ref="C2" r:id="rId10" display="wordpress" xr:uid="{F82C7368-3F12-49AE-A7BD-8A02717AD733}"/>
     <hyperlink ref="D2" r:id="rId11" xr:uid="{D50FE964-2841-4186-A47F-DCB9A0265B85}"/>
     <hyperlink ref="G3" r:id="rId12" xr:uid="{9AE67330-8B89-4F57-8293-D80E6C9C09D0}"/>
-    <hyperlink ref="G1" location="Dashboard!A1" display="Back" xr:uid="{818DE405-F74A-4A6D-8653-4019F6BCCE02}"/>
     <hyperlink ref="B3" r:id="rId13" xr:uid="{08F4052B-DF72-422E-A5DB-B8AE93269811}"/>
     <hyperlink ref="E1" r:id="rId14" xr:uid="{18B435C1-A2C1-41D4-9674-C1E6D52630A2}"/>
     <hyperlink ref="B4" r:id="rId15" xr:uid="{DB74D6AB-E4CF-475C-8BF3-92C6F3F62509}"/>
@@ -4464,287 +7382,9 @@
     <hyperlink ref="A10" r:id="rId18" xr:uid="{ACE09C62-8C0E-4C20-849B-6754FC23C746}"/>
     <hyperlink ref="D5" r:id="rId19" display="https://www.doctrine-project.org/" xr:uid="{FFA81CFF-4BFA-4736-B7D1-880CF857C7CD}"/>
     <hyperlink ref="A7" r:id="rId20" display="https://refactoring.guru/design-patterns/php" xr:uid="{C415F922-5A58-43C4-8573-57A7908F38A6}"/>
+    <hyperlink ref="G1" location="'0'!A1" display="Back" xr:uid="{23D2050F-7E0C-49E2-A5FC-11FBF7EFB4CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBDEB62-6BA5-4C28-B051-2DE4BB52AF06}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="19.42578125" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A6:K6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{62DD907A-808B-45E7-8012-4447861C3085}"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://overapi.com/nodejs" xr:uid="{4D97E5E6-8AA9-4562-B5E0-86FC08ADB7A2}"/>
-    <hyperlink ref="A1" r:id="rId3" xr:uid="{C07ADDBF-B8B8-4BF8-BA82-40C2A31EE589}"/>
-    <hyperlink ref="B1" r:id="rId4" display="NodeJS" xr:uid="{F42E2CA2-40F4-4527-90DD-E34D9F1267E5}"/>
-    <hyperlink ref="C1" r:id="rId5" display="expressjs" xr:uid="{00B0CB18-594B-4208-B2A0-417DCC6D19B1}"/>
-    <hyperlink ref="E1" r:id="rId6" display="reactjs" xr:uid="{DC3CE7E2-5E5D-4961-B060-423817A03278}"/>
-    <hyperlink ref="D1" r:id="rId7" xr:uid="{3950DA7F-E6CA-418E-B766-CF1C2C4DBAFD}"/>
-    <hyperlink ref="F1" r:id="rId8" display="vuejs" xr:uid="{6182F651-3165-4220-B0B1-C15A13F66934}"/>
-    <hyperlink ref="A4" r:id="rId9" xr:uid="{AAF5C530-2BC9-49AC-AE4E-4657BCC678AD}"/>
-    <hyperlink ref="B4" r:id="rId10" xr:uid="{6C13F7EB-DB34-422A-B4F6-D433330E9609}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{F938EF98-CEE8-499A-85FB-C3041DB9F688}"/>
-    <hyperlink ref="D4" r:id="rId12" xr:uid="{5F52E507-E53C-47CB-8963-6BDADBA55494}"/>
-    <hyperlink ref="I1" r:id="rId13" xr:uid="{9A5BD845-0FA1-4E60-8496-CEA224C40B6C}"/>
-    <hyperlink ref="H1" r:id="rId14" display="nextjs" xr:uid="{65875F65-81FC-4B7D-AC54-64E1FF38FD3D}"/>
-    <hyperlink ref="A2" r:id="rId15" xr:uid="{6B2B96DB-563D-49CB-BC30-F75B9E27B9C3}"/>
-    <hyperlink ref="A8" r:id="rId16" xr:uid="{150DED1C-A969-4160-9DE5-192917A781F3}"/>
-    <hyperlink ref="H4" r:id="rId17" xr:uid="{43520F7B-FBCB-464A-B3E4-3AE0C5B6DF92}"/>
-    <hyperlink ref="B2" r:id="rId18" xr:uid="{A3D799B0-3DF8-4587-A3C2-938F09FF03F7}"/>
-    <hyperlink ref="E2" r:id="rId19" xr:uid="{FACD86EA-AE0D-4696-AC58-0334507A0E75}"/>
-    <hyperlink ref="G1" r:id="rId20" display="TypeSCript" xr:uid="{0CE3E3AE-75A5-4431-B7FF-F92F6905BDA1}"/>
-    <hyperlink ref="I4" r:id="rId21" xr:uid="{EA8FEC1D-5703-4DE1-931A-7602E8EB69CB}"/>
-    <hyperlink ref="F2" r:id="rId22" display="yarn pkg" xr:uid="{8A3673D9-756A-48D2-B8F5-DEA570A57B04}"/>
-    <hyperlink ref="E4" r:id="rId23" xr:uid="{E663D010-F72C-4212-9C31-E35D32B128C2}"/>
-    <hyperlink ref="F4" r:id="rId24" xr:uid="{CC392040-A3B6-48DB-95C1-BD3AF8987137}"/>
-    <hyperlink ref="G2" r:id="rId25" display="npmjs" xr:uid="{4540C1CC-0BEB-4E1E-992C-55DF1C3AEBD0}"/>
-    <hyperlink ref="A5" r:id="rId26" xr:uid="{C58E173B-D947-428B-8278-F28C4A5771C5}"/>
-    <hyperlink ref="B8" r:id="rId27" xr:uid="{A9B4BEE5-0B34-4264-AD14-9133F771B023}"/>
-    <hyperlink ref="B5" r:id="rId28" xr:uid="{BA8A11E5-561F-41ED-B3C9-4EE81D95B074}"/>
-    <hyperlink ref="D2" r:id="rId29" xr:uid="{34ABB2E2-0295-4BEA-A8AB-A5CC87203121}"/>
-    <hyperlink ref="C8" r:id="rId30" xr:uid="{111D519E-B5BF-4E38-A3C9-90C7D221ED61}"/>
-    <hyperlink ref="J10" r:id="rId31" xr:uid="{39A4022B-1EE6-4A47-AE0E-91A8FC98A2AC}"/>
-    <hyperlink ref="A7" r:id="rId32" xr:uid="{865C66EB-4941-43ED-A253-7A5C975DFD80}"/>
-    <hyperlink ref="B7" r:id="rId33" xr:uid="{2A366228-DEEC-465C-BE73-32060BAB71D9}"/>
-    <hyperlink ref="C7" r:id="rId34" xr:uid="{4EC11F02-F6C5-471F-9C62-6AED1818DCC9}"/>
-    <hyperlink ref="D7" r:id="rId35" xr:uid="{3F39B0D6-1957-4624-94FF-B9C5D1655B77}"/>
-    <hyperlink ref="D8" r:id="rId36" xr:uid="{30E64F8F-3483-4849-8B81-58D74EFEC709}"/>
-    <hyperlink ref="E7" r:id="rId37" xr:uid="{2BAFA16E-51D2-4120-AFDF-2C6A0B9CF045}"/>
-    <hyperlink ref="K10" r:id="rId38" xr:uid="{0281E289-2036-48A5-BFCF-9B66709AE023}"/>
-    <hyperlink ref="C2" r:id="rId39" xr:uid="{77263CCE-E0BF-4B03-9B21-36D69D90F336}"/>
-    <hyperlink ref="K1" location="'P1'!A1" display="Back" xr:uid="{5A4E9483-FCF7-4CFC-A4B2-F939036BA9AC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
-</worksheet>
 </file>